--- a/Data/data-raw/GOA/Pollock 2018/pk18_8.xlsx
+++ b/Data/data-raw/GOA/Pollock 2018/pk18_8.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\_Current\poll18\admb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/Data/data-raw/GOA/Pollock 2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1F332-9AFE-914C-B9AB-C24D4F6E5FF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="375" windowWidth="23985" windowHeight="11415"/>
+    <workbookView xWindow="1620" yWindow="460" windowWidth="23980" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pk18_8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -360,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
@@ -369,7 +370,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -396,6 +397,7 @@
     <font>
       <sz val="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -547,6 +549,7 @@
     <font>
       <sz val="9"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -974,29 +977,29 @@
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="54"/>
+    <cellStyle name="20% - Accent1 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="56"/>
+    <cellStyle name="20% - Accent2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="58"/>
+    <cellStyle name="20% - Accent3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="60"/>
+    <cellStyle name="20% - Accent4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="62"/>
+    <cellStyle name="20% - Accent5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="64"/>
+    <cellStyle name="20% - Accent6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="55"/>
+    <cellStyle name="40% - Accent1 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="57"/>
+    <cellStyle name="40% - Accent2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="59"/>
+    <cellStyle name="40% - Accent3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="61"/>
+    <cellStyle name="40% - Accent4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="63"/>
+    <cellStyle name="40% - Accent5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="65"/>
+    <cellStyle name="40% - Accent6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -1012,34 +1015,34 @@
     <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="50"/>
-    <cellStyle name="Comma 2 2" xfId="69"/>
+    <cellStyle name="Comma 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Comma 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="49"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="48"/>
+    <cellStyle name="Hyperlink 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="Normal 2 2" xfId="67"/>
-    <cellStyle name="Normal 3" xfId="46"/>
-    <cellStyle name="Normal 4" xfId="51"/>
-    <cellStyle name="Normal 5" xfId="42"/>
-    <cellStyle name="Normal 6" xfId="52"/>
-    <cellStyle name="Normal 7" xfId="66"/>
-    <cellStyle name="Normal 8" xfId="53"/>
-    <cellStyle name="Normal_maturity tables" xfId="43"/>
-    <cellStyle name="Normal_pk09_1" xfId="1"/>
-    <cellStyle name="Note 2" xfId="47"/>
-    <cellStyle name="Note 2 2" xfId="68"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 5" xfId="42" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 6" xfId="52" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 7" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 8" xfId="53" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal_maturity tables" xfId="43" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal_pk09_1" xfId="1" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Note 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Note 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="44"/>
+    <cellStyle name="Percent 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1133,6 +1136,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1168,6 +1188,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1343,31 +1380,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="A824" sqref="A824"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="P441" sqref="P441"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49">
       <c r="A3">
         <v>1970</v>
       </c>
@@ -1375,12 +1412,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1388,12 +1425,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49">
       <c r="A8" s="13">
         <v>8</v>
       </c>
@@ -1415,18 +1452,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49">
       <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
@@ -1575,7 +1612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49">
       <c r="A12" s="39" t="s">
         <v>82</v>
       </c>
@@ -1724,7 +1761,7 @@
         <v>161492</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49">
       <c r="A13" s="39">
         <v>9378.6640310848707</v>
       </c>
@@ -1873,14 +1910,14 @@
         <v>161492</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="AV14" s="1"/>
       <c r="AW14" s="7"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49">
       <c r="A15">
         <v>0.05</v>
       </c>
@@ -2029,22 +2066,22 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51">
       <c r="A17" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51">
       <c r="A19">
         <v>1975</v>
       </c>
@@ -2175,12 +2212,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2313,7 +2350,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51">
       <c r="A22" s="7" t="s">
         <v>90</v>
       </c>
@@ -2446,7 +2483,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -2579,7 +2616,7 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51">
       <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
@@ -2712,7 +2749,7 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51">
       <c r="A25" s="7" t="s">
         <v>102</v>
       </c>
@@ -2845,7 +2882,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51">
       <c r="A26" s="7">
         <v>0.35469218915240364</v>
       </c>
@@ -2978,12 +3015,12 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51">
       <c r="A28" s="7" t="s">
         <v>59</v>
       </c>
@@ -3114,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51">
       <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
@@ -3245,7 +3282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3376,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51">
       <c r="A31">
         <v>10</v>
       </c>
@@ -3507,22 +3544,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48">
       <c r="A33">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48">
       <c r="A35">
         <v>1970</v>
       </c>
@@ -3551,12 +3588,12 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3585,12 +3622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48">
       <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48">
       <c r="A39" s="7" t="s">
         <v>62</v>
       </c>
@@ -3736,7 +3773,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48">
       <c r="A40" s="7" t="s">
         <v>67</v>
       </c>
@@ -3882,7 +3919,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48">
       <c r="A41" s="7" t="s">
         <v>68</v>
       </c>
@@ -4028,7 +4065,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48">
       <c r="A42" s="7">
         <v>0.05</v>
       </c>
@@ -4174,12 +4211,12 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48">
       <c r="A43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48">
       <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
@@ -4211,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48">
       <c r="A45" s="14">
         <v>0</v>
       </c>
@@ -4243,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48">
       <c r="A46" s="14">
         <v>0</v>
       </c>
@@ -4275,7 +4312,7 @@
         <v>1.1065006915629294E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48">
       <c r="A47" s="14">
         <v>2.3419471291155411E-4</v>
       </c>
@@ -4307,7 +4344,7 @@
         <v>9.2112211053172969E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48">
       <c r="A48" s="14">
         <v>1.8566843588817621E-3</v>
       </c>
@@ -4339,7 +4376,7 @@
         <v>1.2013048022799219E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="14">
         <v>4.9408592065809318E-4</v>
       </c>
@@ -4371,7 +4408,7 @@
         <v>4.4542915068502172E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="14">
         <v>2.7145086111160389E-3</v>
       </c>
@@ -4403,7 +4440,7 @@
         <v>1.313402374080231E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="14">
         <v>1.0620974654804904E-3</v>
       </c>
@@ -4435,7 +4472,7 @@
         <v>3.189862756211137E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="14">
         <v>1.5374710523028394E-4</v>
       </c>
@@ -4467,7 +4504,7 @@
         <v>2.9519951520086255E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="14">
         <v>0</v>
       </c>
@@ -4499,7 +4536,7 @@
         <v>2.001291231951511E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="14">
         <v>1.759958282470343E-3</v>
       </c>
@@ -4531,7 +4568,7 @@
         <v>1.7632562389469763E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="14">
         <v>6.1152318038603824E-4</v>
       </c>
@@ -4563,7 +4600,7 @@
         <v>1.0503779718670123E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="15">
         <v>1.1975598271717097E-2</v>
       </c>
@@ -4595,7 +4632,7 @@
         <v>8.901629272792767E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="15">
         <v>0</v>
       </c>
@@ -4627,7 +4664,7 @@
         <v>3.6920969607559952E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="15">
         <v>1.0185642451928502E-2</v>
       </c>
@@ -4659,7 +4696,7 @@
         <v>7.7273924677227837E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="15">
         <v>2.7459028074720917E-2</v>
       </c>
@@ -4691,7 +4728,7 @@
         <v>2.6412267763102938E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="15">
         <v>0</v>
       </c>
@@ -4723,7 +4760,7 @@
         <v>3.8496275752346418E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="15">
         <v>0</v>
       </c>
@@ -4755,7 +4792,7 @@
         <v>0.11552774452494123</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="15">
         <v>1.0399612846096E-3</v>
       </c>
@@ -4787,7 +4824,7 @@
         <v>0.10442436352561066</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="15">
         <v>3.1864374259067614E-4</v>
       </c>
@@ -4819,7 +4856,7 @@
         <v>5.22968308194676E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="15">
         <v>5.9012840849332281E-4</v>
       </c>
@@ -4851,7 +4888,7 @@
         <v>8.3649336338689123E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="15">
         <v>0</v>
       </c>
@@ -4883,7 +4920,7 @@
         <v>8.6019077774007316E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="15">
         <v>0</v>
       </c>
@@ -4915,7 +4952,7 @@
         <v>0.11954918723483388</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="15">
         <v>0</v>
       </c>
@@ -4947,7 +4984,7 @@
         <v>0.11605031534618783</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="15">
         <v>4.2086606573582801E-3</v>
       </c>
@@ -4979,7 +5016,7 @@
         <v>0.13714008604556513</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="15">
         <v>0</v>
       </c>
@@ -5011,7 +5048,7 @@
         <v>0.14349058782784049</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="15">
         <v>1.1682486009143677E-3</v>
       </c>
@@ -5043,7 +5080,7 @@
         <v>9.3913395665416011E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="15">
         <v>1.0203368896378025E-2</v>
       </c>
@@ -5075,7 +5112,7 @@
         <v>4.8297805466515145E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="15">
         <v>2.3877476253531056E-3</v>
       </c>
@@ -5107,7 +5144,7 @@
         <v>3.2679056806312841E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="15">
         <v>2.1080668980144957E-3</v>
       </c>
@@ -5139,7 +5176,7 @@
         <v>1.4105233046925745E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="15">
         <v>9.6617410232516885E-3</v>
       </c>
@@ -5171,7 +5208,7 @@
         <v>5.3170661504486211E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="15">
         <v>1.322809677728878E-2</v>
       </c>
@@ -5203,7 +5240,7 @@
         <v>7.708680150607718E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="15">
         <v>3.2793889267489544E-2</v>
       </c>
@@ -5235,7 +5272,7 @@
         <v>1.3279848723031149E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="15">
         <v>1.5020707494831229E-2</v>
       </c>
@@ -5267,7 +5304,7 @@
         <v>1.1224132455363047E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="15">
         <v>6.2415005223989892E-3</v>
       </c>
@@ -5299,7 +5336,7 @@
         <v>3.0684140668551952E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="15">
         <v>5.2895373451977076E-3</v>
       </c>
@@ -5331,7 +5368,7 @@
         <v>4.3864428648492222E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="15">
         <v>9.9974024770170034E-5</v>
       </c>
@@ -5363,7 +5400,7 @@
         <v>2.3203574083445262E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25">
       <c r="A81" s="15">
         <v>0</v>
       </c>
@@ -5395,7 +5432,7 @@
         <v>1.2249039478491991E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25">
       <c r="A82" s="15">
         <v>3.8542497078819017E-4</v>
       </c>
@@ -5436,7 +5473,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25">
       <c r="A83" s="15">
         <v>8.3852803688587753E-3</v>
       </c>
@@ -5473,7 +5510,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25">
       <c r="A84" s="32">
         <v>6.0926616515615689E-4</v>
       </c>
@@ -5510,7 +5547,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25">
       <c r="A85" s="32">
         <v>0</v>
       </c>
@@ -5548,7 +5585,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25">
       <c r="A86" s="32">
         <v>0</v>
       </c>
@@ -5586,7 +5623,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25">
       <c r="A87" s="32">
         <v>0</v>
       </c>
@@ -5624,12 +5661,12 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25">
       <c r="A89" s="16" t="s">
         <v>16</v>
       </c>
@@ -5655,7 +5692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -5681,7 +5718,7 @@
         <v>1.244E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -5707,7 +5744,7 @@
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -5733,7 +5770,7 @@
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -5759,7 +5796,7 @@
         <v>9.5350000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -5785,7 +5822,7 @@
         <v>5.3629999999999997E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -5811,7 +5848,7 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -5837,7 +5874,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -5863,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -5889,12 +5926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="7" t="s">
         <v>16</v>
       </c>
@@ -5926,7 +5963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="3">
         <f t="shared" ref="A101:A103" si="0">A102</f>
         <v>9.5636748558501572E-2</v>
@@ -5968,7 +6005,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="3">
         <f t="shared" si="0"/>
         <v>9.5636748558501572E-2</v>
@@ -6010,7 +6047,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="3">
         <f t="shared" si="0"/>
         <v>9.5636748558501572E-2</v>
@@ -6052,7 +6089,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="3">
         <f t="shared" ref="A104:I104" si="10">A105</f>
         <v>9.5636748558501572E-2</v>
@@ -6094,7 +6131,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="3">
         <f t="shared" ref="A105:I105" si="11">AVERAGE(A106:A110)</f>
         <v>9.5636748558501572E-2</v>
@@ -6136,7 +6173,7 @@
         <v>0.99606113677198427</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="3">
         <v>0.10328268440697343</v>
       </c>
@@ -6168,7 +6205,7 @@
         <v>1.1417827182692899</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="3">
         <v>0.10328268440697343</v>
       </c>
@@ -6200,7 +6237,7 @@
         <v>0.84349157050157897</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="3">
         <v>7.2434885228211898E-2</v>
       </c>
@@ -6232,7 +6269,7 @@
         <v>0.95522637649445075</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="3">
         <v>0.100197635460494</v>
       </c>
@@ -6264,7 +6301,7 @@
         <v>0.92884731265662002</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="3">
         <v>9.8985853289855097E-2</v>
       </c>
@@ -6296,7 +6333,7 @@
         <v>1.1109577059379809</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="3">
         <v>9.0858509261291104E-2</v>
       </c>
@@ -6328,7 +6365,7 @@
         <v>1.0316818720472489</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="3">
         <v>0.162883936724668</v>
       </c>
@@ -6360,7 +6397,7 @@
         <v>1.2109337852158604</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="3">
         <v>7.1611551899234696E-2</v>
       </c>
@@ -6392,7 +6429,7 @@
         <v>1.0510326305510056</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="3">
         <v>0.10328268440697343</v>
       </c>
@@ -6424,7 +6461,7 @@
         <v>1.0775804904645143</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="3">
         <v>0.13350344528146599</v>
       </c>
@@ -6456,7 +6493,7 @@
         <v>1.1285377612320533</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="3">
         <v>0.12072146411891201</v>
       </c>
@@ -6488,7 +6525,7 @@
         <v>1.1562170698249306</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="3">
         <v>7.8346878398628E-2</v>
       </c>
@@ -6520,7 +6557,7 @@
         <v>1.07288081215685</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6552,7 +6589,7 @@
         <v>1.1020752040903261</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="3">
         <v>0.159501769708875</v>
       </c>
@@ -6584,7 +6621,7 @@
         <v>1.4103997126924603</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="3">
         <v>6.7513176623714005E-2</v>
       </c>
@@ -6616,7 +6653,7 @@
         <v>1.4585782931889968</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6648,7 +6685,7 @@
         <v>1.7629194732845674</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6680,7 +6717,7 @@
         <v>1.5424396294804019</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="3">
         <v>0.120763226716496</v>
       </c>
@@ -6712,7 +6749,7 @@
         <v>1.4172927729759288</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="3">
         <v>0.13597544362972899</v>
       </c>
@@ -6744,7 +6781,7 @@
         <v>1.3561618858979128</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="3">
         <v>0.14108395836269499</v>
       </c>
@@ -6776,7 +6813,7 @@
         <v>1.4326420237663553</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6808,7 +6845,7 @@
         <v>1.4400238492976036</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6840,7 +6877,7 @@
         <v>1.4096971821716553</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6872,7 +6909,7 @@
         <v>1.3580438611106203</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" s="3">
         <v>9.6742207745268594E-2</v>
       </c>
@@ -6904,7 +6941,7 @@
         <v>1.4093692426702189</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="A130" s="3">
         <v>0.123498513479885</v>
       </c>
@@ -6936,7 +6973,7 @@
         <v>1.3783641793409458</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="A131" s="3">
         <v>0.1571132495631434</v>
       </c>
@@ -6968,7 +7005,7 @@
         <v>1.6628765783282369</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="A132" s="3">
         <v>0.10806800248831561</v>
       </c>
@@ -7001,7 +7038,7 @@
       </c>
       <c r="O132" s="11"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="3">
         <v>0.14502502999452269</v>
       </c>
@@ -7034,7 +7071,7 @@
       </c>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="A134" s="3">
         <v>0.13619398542935227</v>
       </c>
@@ -7068,7 +7105,7 @@
       <c r="L134" s="3"/>
       <c r="O134" s="11"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" s="3">
         <v>0.11201413837349281</v>
       </c>
@@ -7106,7 +7143,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="A136" s="3">
         <v>0.12673519955540888</v>
       </c>
@@ -7144,7 +7181,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="3">
         <v>0.1292421015105279</v>
       </c>
@@ -7177,7 +7214,7 @@
       </c>
       <c r="O137" s="11"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="A138" s="3">
         <v>0.1268005105142338</v>
       </c>
@@ -7210,7 +7247,7 @@
       </c>
       <c r="O138" s="11"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" s="3">
         <v>0.1427301446590469</v>
       </c>
@@ -7243,7 +7280,7 @@
       </c>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="A140" s="3">
         <v>0.20545563604497741</v>
       </c>
@@ -7276,7 +7313,7 @@
       </c>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="A141" s="3">
         <v>0.1331038671012742</v>
       </c>
@@ -7308,7 +7345,7 @@
         <v>2.1907521048446967</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="A142" s="3">
         <f>AVERAGE(A143:A145,A135:A141)</f>
         <v>0.14142753479647005</v>
@@ -7341,7 +7378,7 @@
         <v>1.9130436746408841</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="A143" s="3">
         <v>0.19429509809468051</v>
       </c>
@@ -7373,7 +7410,7 @@
         <v>2.2367848502574175</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
       <c r="A144" s="3">
         <v>0.14037481394446991</v>
       </c>
@@ -7405,7 +7442,7 @@
         <v>2.1667967041041494</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12">
       <c r="A145" s="3">
         <v>0.10352383816658836</v>
       </c>
@@ -7437,7 +7474,7 @@
         <v>1.8257259532095558</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12">
       <c r="A146" s="3">
         <v>0.14142753479647005</v>
       </c>
@@ -7469,7 +7506,7 @@
         <v>1.783245440610048</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12">
       <c r="A147" s="10">
         <v>0.14142753479647005</v>
       </c>
@@ -7502,7 +7539,7 @@
       </c>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12">
       <c r="A148" s="10">
         <v>0.14142753479647005</v>
       </c>
@@ -7535,7 +7572,7 @@
       </c>
       <c r="L148" s="10"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12">
       <c r="A149" s="10">
         <v>0.16212199999999999</v>
       </c>
@@ -7568,27 +7605,27 @@
       </c>
       <c r="L149" s="10"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>1981</v>
       </c>
@@ -7617,12 +7654,12 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12">
       <c r="A156" s="3">
         <v>2.4756610000000001</v>
       </c>
@@ -7653,12 +7690,12 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12">
       <c r="A158" s="38" t="s">
         <v>58</v>
       </c>
@@ -7689,7 +7726,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12">
       <c r="A159" s="7">
         <v>0.2</v>
       </c>
@@ -7720,22 +7757,22 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:49">
       <c r="A161">
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:49">
       <c r="A162" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:49">
       <c r="A163">
         <v>1992</v>
       </c>
@@ -7812,12 +7849,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:49">
       <c r="A164" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:49">
       <c r="A165" s="7" t="s">
         <v>53</v>
       </c>
@@ -7894,7 +7931,7 @@
         <v>1.3263350395944447</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:49">
       <c r="A166" s="10" t="s">
         <v>88</v>
       </c>
@@ -7971,7 +8008,7 @@
         <v>1.3263350395944447</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:49">
       <c r="A167" s="3">
         <v>0.70801499999999995</v>
       </c>
@@ -8048,12 +8085,12 @@
         <v>1.293463457340301</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:49">
       <c r="A168" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:49">
       <c r="A169">
         <v>0.2</v>
       </c>
@@ -8130,12 +8167,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:49">
       <c r="A170" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:49">
       <c r="A171" s="7" t="s">
         <v>62</v>
       </c>
@@ -8281,7 +8318,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:49">
       <c r="A172" s="7">
         <v>1E-3</v>
       </c>
@@ -8427,12 +8464,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:49">
       <c r="A173" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:49">
       <c r="A174" s="7" t="s">
         <v>61</v>
       </c>
@@ -8581,7 +8618,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:49">
       <c r="A175">
         <v>0.20899999999999999</v>
       </c>
@@ -8730,22 +8767,22 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:49">
       <c r="A176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25">
       <c r="A177">
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25">
       <c r="A179">
         <v>1992</v>
       </c>
@@ -8822,12 +8859,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25">
       <c r="A181" s="7" t="s">
         <v>79</v>
       </c>
@@ -8904,7 +8941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25">
       <c r="A182" s="7" t="s">
         <v>93</v>
       </c>
@@ -8981,7 +9018,7 @@
         <v>9.287564903917664</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25">
       <c r="A183" s="7" t="s">
         <v>98</v>
       </c>
@@ -9058,7 +9095,7 @@
         <v>9.0929295697208641</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25">
       <c r="A184" s="7">
         <v>8.9083476913123274</v>
       </c>
@@ -9135,12 +9172,12 @@
         <v>8.9083476913123274</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25">
       <c r="A186" s="7" t="s">
         <v>14</v>
       </c>
@@ -9217,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25">
       <c r="A187" s="7" t="s">
         <v>50</v>
       </c>
@@ -9294,7 +9331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -9371,7 +9408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25">
       <c r="A189">
         <v>10</v>
       </c>
@@ -9448,22 +9485,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25">
       <c r="A191">
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25">
       <c r="A193">
         <v>1981</v>
       </c>
@@ -9540,12 +9577,12 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -9622,12 +9659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25">
       <c r="A197" s="7" t="s">
         <v>16</v>
       </c>
@@ -9659,7 +9696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25">
       <c r="A198" s="18">
         <v>0</v>
       </c>
@@ -9703,7 +9740,7 @@
       <c r="U198" s="32"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25">
       <c r="A199" s="32">
         <v>0</v>
       </c>
@@ -9747,7 +9784,7 @@
       <c r="U199" s="32"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25">
       <c r="A200" s="32">
         <v>0</v>
       </c>
@@ -9791,7 +9828,7 @@
       <c r="U200" s="32"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25">
       <c r="A201" s="32">
         <v>0</v>
       </c>
@@ -9835,7 +9872,7 @@
       <c r="U201" s="32"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25">
       <c r="A202" s="32">
         <v>0</v>
       </c>
@@ -9879,7 +9916,7 @@
       <c r="U202" s="32"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25">
       <c r="A203" s="32">
         <v>0</v>
       </c>
@@ -9923,7 +9960,7 @@
       <c r="U203" s="32"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25">
       <c r="A204" s="32">
         <v>0</v>
       </c>
@@ -9967,7 +10004,7 @@
       <c r="U204" s="32"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25">
       <c r="A205" s="32">
         <v>0</v>
       </c>
@@ -10011,7 +10048,7 @@
       <c r="U205" s="32"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25">
       <c r="A206" s="32">
         <v>0</v>
       </c>
@@ -10055,7 +10092,7 @@
       <c r="U206" s="32"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25">
       <c r="A207" s="32">
         <v>0</v>
       </c>
@@ -10099,7 +10136,7 @@
       <c r="U207" s="32"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25">
       <c r="A208" s="32">
         <v>0</v>
       </c>
@@ -10143,7 +10180,7 @@
       <c r="U208" s="32"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23">
       <c r="A209" s="32">
         <v>0</v>
       </c>
@@ -10187,7 +10224,7 @@
       <c r="U209" s="32"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23">
       <c r="A210" s="32">
         <v>0</v>
       </c>
@@ -10231,7 +10268,7 @@
       <c r="U210" s="32"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23">
       <c r="A211" s="32">
         <v>0</v>
       </c>
@@ -10275,7 +10312,7 @@
       <c r="U211" s="32"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23">
       <c r="A212" s="32">
         <v>0</v>
       </c>
@@ -10319,7 +10356,7 @@
       <c r="U212" s="32"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23">
       <c r="A213" s="32">
         <v>0</v>
       </c>
@@ -10363,7 +10400,7 @@
       <c r="U213" s="32"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23">
       <c r="A214" s="32">
         <v>0</v>
       </c>
@@ -10407,7 +10444,7 @@
       <c r="U214" s="32"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23">
       <c r="A215" s="32">
         <v>0</v>
       </c>
@@ -10451,7 +10488,7 @@
       <c r="U215" s="32"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23">
       <c r="A216" s="32">
         <v>0</v>
       </c>
@@ -10495,7 +10532,7 @@
       <c r="U216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23">
       <c r="A217" s="32">
         <v>0</v>
       </c>
@@ -10539,7 +10576,7 @@
       <c r="U217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23">
       <c r="A218" s="32">
         <v>0</v>
       </c>
@@ -10583,7 +10620,7 @@
       <c r="U218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23">
       <c r="A219" s="32">
         <v>0</v>
       </c>
@@ -10627,7 +10664,7 @@
       <c r="U219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23">
       <c r="A220" s="32">
         <v>0</v>
       </c>
@@ -10671,7 +10708,7 @@
       <c r="U220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23">
       <c r="A221" s="32">
         <v>0</v>
       </c>
@@ -10715,7 +10752,7 @@
       <c r="U221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23">
       <c r="A222" s="32">
         <v>0</v>
       </c>
@@ -10759,7 +10796,7 @@
       <c r="U222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23">
       <c r="A223" s="2" t="s">
         <v>30</v>
       </c>
@@ -10770,7 +10807,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23">
       <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
@@ -10793,7 +10830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="2">
         <v>0</v>
       </c>
@@ -10816,7 +10853,7 @@
         <v>1.58E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="2">
         <v>0</v>
       </c>
@@ -10839,7 +10876,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="2">
         <v>0</v>
       </c>
@@ -10862,7 +10899,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="2">
         <v>0</v>
       </c>
@@ -10885,7 +10922,7 @@
         <v>4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="2">
         <v>0</v>
       </c>
@@ -10908,7 +10945,7 @@
         <v>2.4599999999999999E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="2">
         <v>0</v>
       </c>
@@ -10931,7 +10968,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="2">
         <v>0</v>
       </c>
@@ -10954,7 +10991,7 @@
         <v>7.9699999999999997E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="2">
         <v>0</v>
       </c>
@@ -10977,7 +11014,7 @@
         <v>5.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="2">
         <v>0</v>
       </c>
@@ -11000,7 +11037,7 @@
         <v>2.0580000000000001E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="2">
         <v>0</v>
       </c>
@@ -11023,7 +11060,7 @@
         <v>5.4899999999999997E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="2">
         <v>0</v>
       </c>
@@ -11046,7 +11083,7 @@
         <v>5.2159999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="2">
         <v>0</v>
       </c>
@@ -11069,7 +11106,7 @@
         <v>0.13102</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="2">
         <v>0</v>
       </c>
@@ -11092,7 +11129,7 @@
         <v>2.9389999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>0</v>
       </c>
@@ -11115,7 +11152,7 @@
         <v>1.537E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="2">
         <v>0</v>
       </c>
@@ -11138,7 +11175,7 @@
         <v>3.1320000000000001E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="2">
         <v>0</v>
       </c>
@@ -11161,7 +11198,7 @@
         <v>5.5780000000000003E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13">
       <c r="A241" s="2">
         <v>0</v>
       </c>
@@ -11184,7 +11221,7 @@
         <v>2.8139999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13">
       <c r="A242" s="2">
         <v>0</v>
       </c>
@@ -11207,7 +11244,7 @@
         <v>4.4600000000000004E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13">
       <c r="A243" s="2">
         <v>0</v>
       </c>
@@ -11230,7 +11267,7 @@
         <v>3.5646997314726825E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13">
       <c r="A244" s="2">
         <v>0</v>
       </c>
@@ -11253,7 +11290,7 @@
         <v>2.9501196773726113E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -11276,7 +11313,7 @@
         <v>8.0472709836844191E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -11299,7 +11336,7 @@
         <v>1.0489126009372348E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -11328,7 +11365,7 @@
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -11357,7 +11394,7 @@
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13">
       <c r="A249" s="2">
         <v>0</v>
       </c>
@@ -11386,12 +11423,12 @@
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13">
       <c r="A251" s="7" t="s">
         <v>16</v>
       </c>
@@ -11423,7 +11460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13">
       <c r="A252" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11455,7 +11492,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13">
       <c r="A253" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11487,7 +11524,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13">
       <c r="A254" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11519,7 +11556,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13">
       <c r="A255" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11551,7 +11588,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13">
       <c r="A256" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11583,7 +11620,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10">
       <c r="A257" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11615,7 +11652,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10">
       <c r="A258" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11647,7 +11684,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10">
       <c r="A259" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11679,7 +11716,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10">
       <c r="A260" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11711,7 +11748,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10">
       <c r="A261" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11743,7 +11780,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10">
       <c r="A262" s="2">
         <v>1.2284714449209738E-2</v>
       </c>
@@ -11775,7 +11812,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10">
       <c r="A263" s="2">
         <v>1.6612968572642071E-2</v>
       </c>
@@ -11807,7 +11844,7 @@
         <v>0.76384218302016826</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10">
       <c r="A264" s="2">
         <f>AVERAGE(A263,A265)</f>
         <v>1.490915457125102E-2</v>
@@ -11849,7 +11886,7 @@
         <v>0.9107124545361569</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10">
       <c r="A265" s="2">
         <v>1.3205340569859966E-2</v>
       </c>
@@ -11881,7 +11918,7 @@
         <v>1.0575827260521455</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10">
       <c r="A266" s="2">
         <v>1.2278227555943384E-2</v>
       </c>
@@ -11913,7 +11950,7 @@
         <v>1.005671466852389</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10">
       <c r="A267" s="2">
         <v>1.1655357799197515E-2</v>
       </c>
@@ -11945,7 +11982,7 @@
         <v>1.1565480030081621</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10">
       <c r="A268" s="2">
         <v>7.6716777484057532E-3</v>
       </c>
@@ -11977,7 +12014,7 @@
         <v>1.0662231375458915</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10">
       <c r="A269" s="2">
         <f>AVERAGE(A268,A270)</f>
         <v>8.6822334032944926E-3</v>
@@ -12019,7 +12056,7 @@
         <v>1.1738008393716481</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10">
       <c r="A270" s="2">
         <v>9.6927890581832311E-3</v>
       </c>
@@ -12051,7 +12088,7 @@
         <v>1.2813785411974048</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10">
       <c r="A271" s="2">
         <v>1.0716550979024771E-2</v>
       </c>
@@ -12083,7 +12120,7 @@
         <v>1.2209272531133084</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10">
       <c r="A272" s="2">
         <v>8.4859678111978386E-3</v>
       </c>
@@ -12115,7 +12152,7 @@
         <v>1.3636399050302852</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10">
       <c r="A273" s="2">
         <v>1.0874065581080035E-2</v>
       </c>
@@ -12147,7 +12184,7 @@
         <v>1.5214632853588541</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10">
       <c r="A274" s="2">
         <v>1.1112465500706208E-2</v>
       </c>
@@ -12179,7 +12216,7 @@
         <v>1.304152124385495</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10">
       <c r="A275" s="2">
         <v>9.938135030436052E-3</v>
       </c>
@@ -12211,7 +12248,7 @@
         <v>1.3321028810447899</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10">
       <c r="A276" s="2">
         <v>1.0205502636033476E-2</v>
       </c>
@@ -12243,7 +12280,7 @@
         <v>1.4313456970653544</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10">
       <c r="A277" s="2">
         <v>1.0684035254627066E-2</v>
       </c>
@@ -12275,7 +12312,7 @@
         <v>1.351810784160175</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10">
       <c r="A278" s="2">
         <v>1.0509513505535334E-2</v>
       </c>
@@ -12307,7 +12344,7 @@
         <v>1.373530451699529</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10">
       <c r="A279" s="2">
         <v>1.0430075643199957E-2</v>
       </c>
@@ -12339,7 +12376,7 @@
         <v>1.4243696456536084</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10">
       <c r="A280" s="2">
         <v>1.1108420865502459E-2</v>
       </c>
@@ -12371,7 +12408,7 @@
         <v>1.3624920017082001</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10">
       <c r="A281" s="2">
         <f>AVERAGE(A280,A282)</f>
         <v>1.1944231309467115E-2</v>
@@ -12413,7 +12450,7 @@
         <v>1.4567194580708152</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10">
       <c r="A282" s="2">
         <v>1.2780041753431772E-2</v>
       </c>
@@ -12445,7 +12482,7 @@
         <v>1.5509469144334302</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10">
       <c r="A283" s="2">
         <v>8.6040766765964026E-3</v>
       </c>
@@ -12477,7 +12514,7 @@
         <v>1.7391980526536135</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10">
       <c r="A284" s="2">
         <v>1.2447202602130837E-2</v>
       </c>
@@ -12509,7 +12546,7 @@
         <v>1.7652628827771184</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10">
       <c r="A285" s="2">
         <v>1.2227883206916685E-2</v>
       </c>
@@ -12541,7 +12578,7 @@
         <v>1.5839424587460889</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10">
       <c r="A286" s="2">
         <v>1.0060049940446026E-2</v>
       </c>
@@ -12573,7 +12610,7 @@
         <v>1.3112453252754619</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10">
       <c r="A287" s="2">
         <v>1.1117302843180037E-2</v>
       </c>
@@ -12605,7 +12642,7 @@
         <v>1.8369958009295402</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10">
       <c r="A288" s="2">
         <v>9.1446814420954505E-3</v>
       </c>
@@ -12637,7 +12674,7 @@
         <v>1.8843549707424296</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13">
       <c r="A289" s="2">
         <v>1.0828703566679553E-2</v>
       </c>
@@ -12669,7 +12706,7 @@
         <v>1.8960533165270772</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13">
       <c r="A290" s="2">
         <v>1.4007448257555429E-2</v>
       </c>
@@ -12701,7 +12738,7 @@
         <v>2.0135954886277774</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13">
       <c r="A291" s="2">
         <v>1.114361869228782E-2</v>
       </c>
@@ -12733,7 +12770,7 @@
         <v>2.0672421402448591</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13">
       <c r="A292" s="2">
         <v>9.9429891634063503E-3</v>
       </c>
@@ -12765,7 +12802,7 @@
         <v>2.2269453639754642</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13">
       <c r="A293" s="2">
         <f>AVERAGE(A292,A294)</f>
         <v>1.1706550765671373E-2</v>
@@ -12807,7 +12844,7 @@
         <v>2.0829074334243423</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13">
       <c r="A294" s="2">
         <v>1.3470112367936394E-2</v>
       </c>
@@ -12840,7 +12877,7 @@
       </c>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13">
       <c r="A295" s="2">
         <v>9.2745663480807306E-3</v>
       </c>
@@ -12873,7 +12910,7 @@
       </c>
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13">
       <c r="A296" s="2">
         <v>1.2143436743192421E-2</v>
       </c>
@@ -12907,7 +12944,7 @@
       <c r="L296" s="3"/>
       <c r="M296" s="3"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13">
       <c r="A297" s="2">
         <v>1.2892963599685585E-2</v>
       </c>
@@ -12941,7 +12978,7 @@
       <c r="L297" s="3"/>
       <c r="M297" s="3"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13">
       <c r="A298" s="2">
         <v>1.2892963599685585E-2</v>
       </c>
@@ -12975,7 +13012,7 @@
       <c r="L298" s="3"/>
       <c r="M298" s="3"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13">
       <c r="A299" s="2">
         <v>1.1044281647192688E-2</v>
       </c>
@@ -13009,7 +13046,7 @@
       <c r="L299" s="3"/>
       <c r="M299" s="3"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13">
       <c r="A300" s="2">
         <v>8.1122549022674423E-3</v>
       </c>
@@ -13043,27 +13080,27 @@
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13">
       <c r="A302" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:49">
       <c r="A305">
         <v>1990</v>
       </c>
@@ -13104,7 +13141,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="306" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:49">
       <c r="A306">
         <v>0.81704006075000002</v>
       </c>
@@ -13145,13 +13182,13 @@
         <v>0.28894327101473533</v>
       </c>
     </row>
-    <row r="307" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:49">
       <c r="A307" t="s">
         <v>22</v>
       </c>
       <c r="K307" s="8"/>
     </row>
-    <row r="308" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:49">
       <c r="A308" s="7" t="s">
         <v>63</v>
       </c>
@@ -13192,7 +13229,7 @@
         <v>0.43639305844832282</v>
       </c>
     </row>
-    <row r="309" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:49">
       <c r="A309">
         <v>0.11702665064588846</v>
       </c>
@@ -13233,12 +13270,12 @@
         <v>0.43639305844832282</v>
       </c>
     </row>
-    <row r="310" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:49">
       <c r="A310" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:49">
       <c r="A311" s="7" t="s">
         <v>62</v>
       </c>
@@ -13384,7 +13421,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="312" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:49">
       <c r="A312" s="7">
         <v>1E-3</v>
       </c>
@@ -13530,12 +13567,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:49">
       <c r="A313" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:49">
       <c r="A314" s="7" t="s">
         <v>61</v>
       </c>
@@ -13684,7 +13721,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="315" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:49">
       <c r="A315">
         <v>0.54300000000000004</v>
       </c>
@@ -13833,22 +13870,22 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="316" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:49">
       <c r="A316" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:49">
       <c r="A317">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:49">
       <c r="A318" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:49">
       <c r="A319">
         <v>1990</v>
       </c>
@@ -13889,12 +13926,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="320" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:49">
       <c r="A320" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13">
       <c r="A321" s="7" t="s">
         <v>79</v>
       </c>
@@ -13935,7 +13972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13">
       <c r="A322" s="7" t="s">
         <v>89</v>
       </c>
@@ -13976,7 +14013,7 @@
         <v>14.462879034803226</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13">
       <c r="A323" s="7" t="s">
         <v>94</v>
       </c>
@@ -14017,7 +14054,7 @@
         <v>9.1611403415551376</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13">
       <c r="A324" s="7" t="s">
         <v>99</v>
       </c>
@@ -14058,7 +14095,7 @@
         <v>8.7537071214779889</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13">
       <c r="A325" s="7">
         <v>8.6693410485556868</v>
       </c>
@@ -14099,12 +14136,12 @@
         <v>8.6693410485556868</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13">
       <c r="A326" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13">
       <c r="A327">
         <v>1</v>
       </c>
@@ -14145,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13">
       <c r="A328">
         <v>10</v>
       </c>
@@ -14186,22 +14223,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13">
       <c r="A329" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13">
       <c r="A330">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13">
       <c r="A331" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13">
       <c r="A332">
         <v>1999</v>
       </c>
@@ -14230,12 +14267,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13">
       <c r="A333" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13">
       <c r="A334">
         <v>0</v>
       </c>
@@ -14264,12 +14301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13">
       <c r="A335" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13">
       <c r="A336" s="20" t="s">
         <v>16</v>
       </c>
@@ -14301,7 +14338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10">
       <c r="A337" s="2">
         <v>5.668664377897336E-2</v>
       </c>
@@ -14333,7 +14370,7 @@
         <v>7.2315112507869206E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10">
       <c r="A338" s="2">
         <v>8.8575960868949657E-2</v>
       </c>
@@ -14365,7 +14402,7 @@
         <v>4.8062965775846407E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10">
       <c r="A339" s="2">
         <v>0.22505146768310122</v>
       </c>
@@ -14397,7 +14434,7 @@
         <v>8.9021627538846224E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10">
       <c r="A340" s="2">
         <v>0.15152729838951992</v>
       </c>
@@ -14429,7 +14466,7 @@
         <v>0.23255609306345834</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10">
       <c r="A341" s="2">
         <v>0.57642202417549837</v>
       </c>
@@ -14461,7 +14498,7 @@
         <v>1.2654839739305174E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10">
       <c r="A342" s="2">
         <v>0.13170050235692179</v>
       </c>
@@ -14493,7 +14530,7 @@
         <v>2.5986033250396522E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10">
       <c r="A343" s="2">
         <v>0.4245191464694113</v>
       </c>
@@ -14525,7 +14562,7 @@
         <v>2.5160058948069681E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10">
       <c r="A344" s="2">
         <v>0.328073842490477</v>
       </c>
@@ -14557,7 +14594,7 @@
         <v>1.4849842817396123E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10">
       <c r="A345" s="2">
         <v>0.27071409502952642</v>
       </c>
@@ -14589,7 +14626,7 @@
         <v>6.135115451221626E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10">
       <c r="A346" s="2">
         <v>0.27368912882605151</v>
       </c>
@@ -14621,7 +14658,7 @@
         <v>3.8481810472327918E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10">
       <c r="A347" s="2">
         <v>0.51014737924982345</v>
       </c>
@@ -14653,7 +14690,7 @@
         <v>1.2264681328704903E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10">
       <c r="A348" s="2">
         <v>8.7384323818019249E-2</v>
       </c>
@@ -14685,7 +14722,7 @@
         <v>2.4609484772389841E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10">
       <c r="A349" s="2">
         <v>0.29128950204971743</v>
       </c>
@@ -14717,12 +14754,12 @@
         <v>1.8654605347796786E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10">
       <c r="A351" s="21" t="s">
         <v>16</v>
       </c>
@@ -14745,7 +14782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10">
       <c r="A352" s="23">
         <v>0</v>
       </c>
@@ -14768,7 +14805,7 @@
         <v>0.25066425221115501</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10">
       <c r="A353" s="23">
         <v>0</v>
       </c>
@@ -14791,7 +14828,7 @@
         <v>0.19877570685300058</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10">
       <c r="A354" s="23">
         <v>0</v>
       </c>
@@ -14814,7 +14851,7 @@
         <v>0.13661952273539887</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10">
       <c r="A355" s="23">
         <v>0</v>
       </c>
@@ -14837,7 +14874,7 @@
         <v>0.21527099753293591</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10">
       <c r="A356" s="23">
         <v>0</v>
       </c>
@@ -14860,7 +14897,7 @@
         <v>0.3048122158184095</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10">
       <c r="A357" s="23">
         <v>0</v>
       </c>
@@ -14883,7 +14920,7 @@
         <v>0.25028127075501122</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10">
       <c r="A358" s="32">
         <v>0.61369721855026405</v>
       </c>
@@ -14906,7 +14943,7 @@
         <v>0.16843329709892935</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10">
       <c r="A359" s="32">
         <v>0.11130384713072916</v>
       </c>
@@ -14929,7 +14966,7 @@
         <v>0.13567786589116657</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10">
       <c r="A360" s="32">
         <v>0.29178538292156331</v>
       </c>
@@ -14952,12 +14989,12 @@
         <v>1.1033910860765571E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10">
       <c r="A361" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10">
       <c r="A362" s="7" t="s">
         <v>16</v>
       </c>
@@ -14989,7 +15026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10">
       <c r="A363" s="24">
         <f t="shared" ref="A363:J376" si="48">AVERAGE(A$377,A$380)</f>
         <v>4.491939606299724E-2</v>
@@ -15031,7 +15068,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10">
       <c r="A364" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15073,7 +15110,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10">
       <c r="A365" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15115,7 +15152,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10">
       <c r="A366" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15157,7 +15194,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10">
       <c r="A367" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15199,7 +15236,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10">
       <c r="A368" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15241,7 +15278,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10">
       <c r="A369" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15283,7 +15320,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10">
       <c r="A370" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15325,7 +15362,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10">
       <c r="A371" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15367,7 +15404,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10">
       <c r="A372" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15409,7 +15446,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10">
       <c r="A373" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15451,7 +15488,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10">
       <c r="A374" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15493,7 +15530,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10">
       <c r="A375" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15535,7 +15572,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10">
       <c r="A376" s="24">
         <f t="shared" si="48"/>
         <v>4.491939606299724E-2</v>
@@ -15577,7 +15614,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10">
       <c r="A377" s="3">
         <v>6.231690904658755E-2</v>
       </c>
@@ -15609,7 +15646,7 @@
         <v>1.1963470617467755</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10">
       <c r="A378" s="24">
         <f>AVERAGE(A377,A380)</f>
         <v>4.491939606299724E-2</v>
@@ -15651,7 +15688,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10">
       <c r="A379" s="24">
         <f>AVERAGE(A377,A380)</f>
         <v>4.491939606299724E-2</v>
@@ -15693,7 +15730,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10">
       <c r="A380" s="3">
         <v>2.7521883079406933E-2</v>
       </c>
@@ -15725,7 +15762,7 @@
         <v>1.2635392639650802</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10">
       <c r="A381" s="24">
         <f>AVERAGE(A380,A383)</f>
         <v>3.7607615276276027E-2</v>
@@ -15767,7 +15804,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10">
       <c r="A382" s="24">
         <f>AVERAGE(A380,A383)</f>
         <v>3.7607615276276027E-2</v>
@@ -15809,7 +15846,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10">
       <c r="A383" s="3">
         <v>4.7693347473145117E-2</v>
       </c>
@@ -15841,7 +15878,7 @@
         <v>1.4716211900661997</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10">
       <c r="A384" s="24">
         <f>AVERAGE(A383,A386)</f>
         <v>4.4142836064207602E-2</v>
@@ -15883,7 +15920,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10">
       <c r="A385" s="24">
         <f>AVERAGE(A383,A386)</f>
         <v>4.4142836064207602E-2</v>
@@ -15925,7 +15962,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10">
       <c r="A386" s="3">
         <v>4.0592324655270087E-2</v>
       </c>
@@ -15957,7 +15994,7 @@
         <v>1.4122806730011275</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10">
       <c r="A387" s="24">
         <f>AVERAGE(A386,A389)</f>
         <v>3.5441154903346019E-2</v>
@@ -15999,7 +16036,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10">
       <c r="A388" s="24">
         <f>AVERAGE(A386,A389)</f>
         <v>3.5441154903346019E-2</v>
@@ -16041,7 +16078,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10">
       <c r="A389" s="3">
         <v>3.0289985151421946E-2</v>
       </c>
@@ -16073,7 +16110,7 @@
         <v>1.4304992241100121</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10">
       <c r="A390" s="24">
         <f>AVERAGE(A389,A392)</f>
         <v>2.6829328564015917E-2</v>
@@ -16115,7 +16152,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10">
       <c r="A391" s="24">
         <f>AVERAGE(A389,A392)</f>
         <v>2.6829328564015917E-2</v>
@@ -16157,7 +16194,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10">
       <c r="A392" s="3">
         <v>2.3368671976609884E-2</v>
       </c>
@@ -16189,7 +16226,7 @@
         <v>1.2848085989331155</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10">
       <c r="A393" s="24">
         <f>AVERAGE(A392,A394)</f>
         <v>2.7135280902801352E-2</v>
@@ -16231,7 +16268,7 @@
         <v>1.3829591690336882</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10">
       <c r="A394" s="3">
         <v>3.0901889828992824E-2</v>
       </c>
@@ -16263,7 +16300,7 @@
         <v>1.4811097391342609</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10">
       <c r="A395" s="24">
         <f>AVERAGE(A394,A396)</f>
         <v>4.0138562921058489E-2</v>
@@ -16305,7 +16342,7 @@
         <v>1.5022116803039225</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10">
       <c r="A396" s="3">
         <v>4.9375236013124157E-2</v>
       </c>
@@ -16337,7 +16374,7 @@
         <v>1.5233136214735843</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10">
       <c r="A397" s="24">
         <f>AVERAGE(A396,A398)</f>
         <v>3.7168776395131886E-2</v>
@@ -16379,7 +16416,7 @@
         <v>1.5249090739551419</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10">
       <c r="A398" s="3">
         <v>2.4962316777139615E-2</v>
       </c>
@@ -16411,7 +16448,7 @@
         <v>1.5265045264366994</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10">
       <c r="A399" s="24">
         <f>AVERAGE(A398,A400)</f>
         <v>2.3510794898959395E-2</v>
@@ -16453,7 +16490,7 @@
         <v>1.631598150824066</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10">
       <c r="A400" s="3">
         <v>2.2059273020779178E-2</v>
       </c>
@@ -16485,7 +16522,7 @@
         <v>1.7366917752114324</v>
       </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31">
       <c r="A401" s="24">
         <f>AVERAGE(A400,A402)</f>
         <v>2.2689277282449447E-2</v>
@@ -16527,7 +16564,7 @@
         <v>1.8783903210742114</v>
       </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31">
       <c r="A402" s="3">
         <v>2.3319281544119712E-2</v>
       </c>
@@ -16559,7 +16596,7 @@
         <v>2.0200888669369905</v>
       </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31">
       <c r="A403" s="24">
         <f>AVERAGE(A402,A404)</f>
         <v>2.5520725634610664E-2</v>
@@ -16601,7 +16638,7 @@
         <v>2.0285176840558297</v>
       </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31">
       <c r="A404" s="3">
         <v>2.7722169725101616E-2</v>
       </c>
@@ -16633,7 +16670,7 @@
         <v>2.0369465011746692</v>
       </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31">
       <c r="A405" s="24">
         <f>AVERAGE(A404,A406)</f>
         <v>2.3688845829400694E-2</v>
@@ -16675,7 +16712,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31">
       <c r="A406" s="3">
         <v>1.9655521933699776E-2</v>
       </c>
@@ -16707,7 +16744,7 @@
         <v>2.0365588967617909</v>
       </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31">
       <c r="A407" s="24">
         <f>AVERAGE(A406,A408)</f>
         <v>2.6377490943595046E-2</v>
@@ -16749,7 +16786,7 @@
         <v>1.7806215180992444</v>
       </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31">
       <c r="A408" s="3">
         <v>3.3099459953490312E-2</v>
       </c>
@@ -16781,7 +16818,7 @@
         <v>1.5246841394366981</v>
       </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31">
       <c r="A409" s="24">
         <f>AVERAGE(A408,A410)</f>
         <v>3.5712499240483329E-2</v>
@@ -16823,7 +16860,7 @@
         <v>1.5142359024437635</v>
       </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31">
       <c r="A410" s="24">
         <v>3.8325538527476347E-2</v>
       </c>
@@ -16855,7 +16892,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31">
       <c r="A411" s="24">
         <f>A410</f>
         <v>3.8325538527476347E-2</v>
@@ -16897,27 +16934,27 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31">
       <c r="A412" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31">
       <c r="A413" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31">
       <c r="A414">
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31">
       <c r="A415" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31">
       <c r="A416">
         <v>1988</v>
       </c>
@@ -17012,12 +17049,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="417" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:49">
       <c r="A417" s="37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="418" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:49">
       <c r="A418">
         <v>0.59077310999999999</v>
       </c>
@@ -17112,12 +17149,12 @@
         <v>0.23989223000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:49">
       <c r="A419" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:49">
       <c r="A420" s="7" t="s">
         <v>85</v>
       </c>
@@ -17212,12 +17249,12 @@
         <v>0.20016084000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:49">
       <c r="A421" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="422" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:49">
       <c r="A422">
         <v>0.33930140605289877</v>
       </c>
@@ -17312,7 +17349,7 @@
         <v>0.40093200404580787</v>
       </c>
     </row>
-    <row r="423" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:49">
       <c r="A423" s="7" t="s">
         <v>76</v>
       </c>
@@ -17407,12 +17444,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="424" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:49">
       <c r="A424" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="425" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:49">
       <c r="A425" s="7" t="s">
         <v>62</v>
       </c>
@@ -17558,7 +17595,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="426" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:49">
       <c r="A426" s="7">
         <v>1E-3</v>
       </c>
@@ -17704,12 +17741,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="427" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:49">
       <c r="A427" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:49">
       <c r="A428" s="7" t="s">
         <v>61</v>
       </c>
@@ -17858,7 +17895,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="429" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:49">
       <c r="A429">
         <v>0.60989000000000004</v>
       </c>
@@ -18007,22 +18044,22 @@
         <v>0.60989000000000004</v>
       </c>
     </row>
-    <row r="430" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:49">
       <c r="A430" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:49">
       <c r="A431">
         <v>17</v>
       </c>
     </row>
-    <row r="432" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:49">
       <c r="A432" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:23">
       <c r="A433">
         <v>1989</v>
       </c>
@@ -18075,12 +18112,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:23">
       <c r="A434" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:23">
       <c r="A435" s="7" t="s">
         <v>80</v>
       </c>
@@ -18133,7 +18170,7 @@
         <v>22.965385225993916</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:23">
       <c r="A436" s="7" t="s">
         <v>80</v>
       </c>
@@ -18186,7 +18223,7 @@
         <v>17.553958081636114</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:23">
       <c r="A437" s="7" t="s">
         <v>80</v>
       </c>
@@ -18239,7 +18276,7 @@
         <v>17.024044679881126</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:23">
       <c r="A438" s="7">
         <v>0</v>
       </c>
@@ -18292,23 +18329,23 @@
         <v>16.813689325685072</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:23">
       <c r="A439" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23">
       <c r="A440">
         <v>23</v>
       </c>
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:23">
       <c r="A441" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:23">
       <c r="A442">
         <v>1989</v>
       </c>
@@ -18379,12 +18416,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:23">
       <c r="A443" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:23">
       <c r="A444">
         <v>0</v>
       </c>
@@ -18455,12 +18492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:23">
       <c r="A445" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:23">
       <c r="A446" s="25" t="s">
         <v>16</v>
       </c>
@@ -18492,7 +18529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:23">
       <c r="A447" s="26">
         <v>0</v>
       </c>
@@ -18524,7 +18561,7 @@
         <v>7.9240000000000005E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:23">
       <c r="A448" s="26">
         <v>0</v>
       </c>
@@ -18556,7 +18593,7 @@
         <v>0.11385000000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10">
       <c r="A449" s="26">
         <v>0</v>
       </c>
@@ -18588,7 +18625,7 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10">
       <c r="A450" s="26">
         <v>0</v>
       </c>
@@ -18620,7 +18657,7 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10">
       <c r="A451" s="26">
         <v>0</v>
       </c>
@@ -18652,7 +18689,7 @@
         <v>1.762E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10">
       <c r="A452" s="26">
         <v>0</v>
       </c>
@@ -18684,7 +18721,7 @@
         <v>0.17163999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10">
       <c r="A453" s="26">
         <v>0</v>
       </c>
@@ -18716,7 +18753,7 @@
         <v>0.11552999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10">
       <c r="A454" s="26">
         <v>0</v>
       </c>
@@ -18748,7 +18785,7 @@
         <v>0.20430999999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10">
       <c r="A455" s="26">
         <v>3.717472118959108E-2</v>
       </c>
@@ -18780,7 +18817,7 @@
         <v>0.24349442379182157</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10">
       <c r="A456" s="26">
         <v>9.2936802973977699E-3</v>
       </c>
@@ -18812,7 +18849,7 @@
         <v>5.2044609665427503E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10">
       <c r="A457" s="26">
         <v>5.0505050505050509E-3</v>
       </c>
@@ -18844,7 +18881,7 @@
         <v>8.4175084175084181E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10">
       <c r="A458" s="26">
         <v>5.076142131979695E-3</v>
       </c>
@@ -18876,7 +18913,7 @@
         <v>4.9069373942470386E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10">
       <c r="A459" s="26">
         <v>0</v>
       </c>
@@ -18908,7 +18945,7 @@
         <v>6.030150753768844E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10">
       <c r="A460" s="26">
         <v>1.7094017094017094E-3</v>
       </c>
@@ -18940,7 +18977,7 @@
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10">
       <c r="A461" s="32">
         <v>1.7699115044247787E-2</v>
       </c>
@@ -18972,7 +19009,7 @@
         <v>5.4867256637168141E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10">
       <c r="A462" s="32">
         <v>0</v>
       </c>
@@ -19004,7 +19041,7 @@
         <v>5.2364864864864871E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10">
       <c r="A463" s="32">
         <v>0</v>
       </c>
@@ -19036,12 +19073,12 @@
         <v>1.5050167224080268E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10">
       <c r="A464" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7">
       <c r="A465" s="27" t="s">
         <v>16</v>
       </c>
@@ -19064,7 +19101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7">
       <c r="A466" s="29">
         <v>3.672036826358286E-2</v>
       </c>
@@ -19087,7 +19124,7 @@
         <v>0.18467874025620118</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7">
       <c r="A467" s="29">
         <v>3.5740072587726587E-2</v>
       </c>
@@ -19110,7 +19147,7 @@
         <v>0.20338168138318627</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7">
       <c r="A468" s="29">
         <v>8.542374883337589E-3</v>
       </c>
@@ -19133,7 +19170,7 @@
         <v>0.30084802297206564</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7">
       <c r="A469" s="29">
         <v>3.7582420407833695E-3</v>
       </c>
@@ -19156,7 +19193,7 @@
         <v>0.24637786316398499</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7">
       <c r="A470" s="29">
         <v>3.1165985831585859E-2</v>
       </c>
@@ -19179,7 +19216,7 @@
         <v>1.492351265795369E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7">
       <c r="A471" s="29">
         <v>3.7002317814514886E-2</v>
       </c>
@@ -19202,7 +19239,7 @@
         <v>0.34709309296773477</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7">
       <c r="A472" s="29">
         <v>1.7293476270559861E-2</v>
       </c>
@@ -19225,7 +19262,7 @@
         <v>0.38279867546068774</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7">
       <c r="A473" s="29">
         <v>9.0805813927975123E-3</v>
       </c>
@@ -19248,7 +19285,7 @@
         <v>0.38272457311818286</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7">
       <c r="A474" s="29">
         <v>3.562030898888045E-3</v>
       </c>
@@ -19271,7 +19308,7 @@
         <v>0.26177977239544375</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7">
       <c r="A475" s="29">
         <v>6.9289406456163379E-3</v>
       </c>
@@ -19294,7 +19331,7 @@
         <v>0.30861553651583518</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7">
       <c r="A476" s="29">
         <v>5.770981682236602E-3</v>
       </c>
@@ -19317,7 +19354,7 @@
         <v>0.32131652377027348</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7">
       <c r="A477" s="29">
         <v>2.9292170880061406E-3</v>
       </c>
@@ -19340,7 +19377,7 @@
         <v>0.23632055447980324</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7">
       <c r="A478" s="29">
         <v>4.0750908007889984E-3</v>
       </c>
@@ -19363,7 +19400,7 @@
         <v>0.17560677562352173</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7">
       <c r="A479" s="29">
         <v>9.9859388106698986E-4</v>
       </c>
@@ -19386,7 +19423,7 @@
         <v>0.13035883000998325</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7">
       <c r="A480" s="29">
         <v>7.5843482293137835E-3</v>
       </c>
@@ -19409,7 +19446,7 @@
         <v>0.22367346334205676</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11">
       <c r="A481" s="29">
         <v>1.0479262420427083E-2</v>
       </c>
@@ -19432,7 +19469,7 @@
         <v>0.40653658637293066</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11">
       <c r="A482" s="29">
         <v>1.0447314995774355E-2</v>
       </c>
@@ -19455,7 +19492,7 @@
         <v>0.47481009681576758</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11">
       <c r="A483" s="29">
         <v>4.2824952559081938E-3</v>
       </c>
@@ -19478,7 +19515,7 @@
         <v>0.32970583030316875</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11">
       <c r="A484" s="29">
         <v>2.9668987251436412E-3</v>
       </c>
@@ -19501,7 +19538,7 @@
         <v>0.29782208763226203</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11">
       <c r="A485" s="29">
         <v>6.4866194048906912E-3</v>
       </c>
@@ -19524,7 +19561,7 @@
         <v>0.38022260533875096</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11">
       <c r="A486" s="29">
         <v>4.7938698406756316E-3</v>
       </c>
@@ -19548,7 +19585,7 @@
       </c>
       <c r="K486" s="9"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11">
       <c r="A487" s="19">
         <v>2.9450307580512077E-3</v>
       </c>
@@ -19572,7 +19609,7 @@
       </c>
       <c r="K487" s="9"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11">
       <c r="A488" s="19">
         <v>0.11690611581218807</v>
       </c>
@@ -19596,13 +19633,13 @@
       </c>
       <c r="K488" s="9"/>
     </row>
-    <row r="489" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="12" customHeight="1">
       <c r="A489" t="s">
         <v>37</v>
       </c>
       <c r="K489" s="9"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11">
       <c r="A490" s="31" t="s">
         <v>16</v>
       </c>
@@ -19635,7 +19672,7 @@
       </c>
       <c r="K490" s="9"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11">
       <c r="A491" s="3">
         <f t="shared" ref="A491:J491" si="180">A363</f>
         <v>4.491939606299724E-2</v>
@@ -19677,7 +19714,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11">
       <c r="A492" s="3">
         <f t="shared" ref="A492:J492" si="181">A364</f>
         <v>4.491939606299724E-2</v>
@@ -19719,7 +19756,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11">
       <c r="A493" s="3">
         <f t="shared" ref="A493:J493" si="182">A365</f>
         <v>4.491939606299724E-2</v>
@@ -19761,7 +19798,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11">
       <c r="A494" s="3">
         <f t="shared" ref="A494:J494" si="183">A366</f>
         <v>4.491939606299724E-2</v>
@@ -19803,7 +19840,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11">
       <c r="A495" s="3">
         <f t="shared" ref="A495:J495" si="184">A367</f>
         <v>4.491939606299724E-2</v>
@@ -19845,7 +19882,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11">
       <c r="A496" s="3">
         <f t="shared" ref="A496:J496" si="185">A368</f>
         <v>4.491939606299724E-2</v>
@@ -19887,7 +19924,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10">
       <c r="A497" s="3">
         <f t="shared" ref="A497:J497" si="186">A369</f>
         <v>4.491939606299724E-2</v>
@@ -19929,7 +19966,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10">
       <c r="A498" s="3">
         <f t="shared" ref="A498:J498" si="187">A370</f>
         <v>4.491939606299724E-2</v>
@@ -19971,7 +20008,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10">
       <c r="A499" s="3">
         <f t="shared" ref="A499:J499" si="188">A371</f>
         <v>4.491939606299724E-2</v>
@@ -20013,7 +20050,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10">
       <c r="A500" s="3">
         <f t="shared" ref="A500:J500" si="189">A372</f>
         <v>4.491939606299724E-2</v>
@@ -20055,7 +20092,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10">
       <c r="A501" s="3">
         <f t="shared" ref="A501:J501" si="190">A373</f>
         <v>4.491939606299724E-2</v>
@@ -20097,7 +20134,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10">
       <c r="A502" s="3">
         <f t="shared" ref="A502:J502" si="191">A374</f>
         <v>4.491939606299724E-2</v>
@@ -20139,7 +20176,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10">
       <c r="A503" s="3">
         <f t="shared" ref="A503:J503" si="192">A375</f>
         <v>4.491939606299724E-2</v>
@@ -20181,7 +20218,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10">
       <c r="A504" s="3">
         <f t="shared" ref="A504:J504" si="193">A376</f>
         <v>4.491939606299724E-2</v>
@@ -20223,7 +20260,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10">
       <c r="A505" s="3">
         <f t="shared" ref="A505:J505" si="194">A377</f>
         <v>6.231690904658755E-2</v>
@@ -20265,7 +20302,7 @@
         <v>1.1963470617467755</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10">
       <c r="A506" s="3">
         <f t="shared" ref="A506:J506" si="195">A378</f>
         <v>4.491939606299724E-2</v>
@@ -20307,7 +20344,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10">
       <c r="A507" s="3">
         <f t="shared" ref="A507:J507" si="196">A379</f>
         <v>4.491939606299724E-2</v>
@@ -20349,7 +20386,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10">
       <c r="A508" s="3">
         <f t="shared" ref="A508:J508" si="197">A380</f>
         <v>2.7521883079406933E-2</v>
@@ -20391,7 +20428,7 @@
         <v>1.2635392639650802</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10">
       <c r="A509" s="3">
         <f t="shared" ref="A509:J509" si="198">A381</f>
         <v>3.7607615276276027E-2</v>
@@ -20433,7 +20470,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10">
       <c r="A510" s="3">
         <f t="shared" ref="A510:J510" si="199">A382</f>
         <v>3.7607615276276027E-2</v>
@@ -20475,7 +20512,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10">
       <c r="A511" s="3">
         <f t="shared" ref="A511:J511" si="200">A383</f>
         <v>4.7693347473145117E-2</v>
@@ -20517,7 +20554,7 @@
         <v>1.4716211900661997</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10">
       <c r="A512" s="3">
         <f t="shared" ref="A512:J512" si="201">A384</f>
         <v>4.4142836064207602E-2</v>
@@ -20559,7 +20596,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10">
       <c r="A513" s="3">
         <f t="shared" ref="A513:J513" si="202">A385</f>
         <v>4.4142836064207602E-2</v>
@@ -20601,7 +20638,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10">
       <c r="A514" s="3">
         <f t="shared" ref="A514:J514" si="203">A386</f>
         <v>4.0592324655270087E-2</v>
@@ -20643,7 +20680,7 @@
         <v>1.4122806730011275</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10">
       <c r="A515" s="3">
         <f t="shared" ref="A515:J515" si="204">A387</f>
         <v>3.5441154903346019E-2</v>
@@ -20685,7 +20722,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10">
       <c r="A516" s="3">
         <f t="shared" ref="A516:J516" si="205">A388</f>
         <v>3.5441154903346019E-2</v>
@@ -20727,7 +20764,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10">
       <c r="A517" s="3">
         <f t="shared" ref="A517:J517" si="206">A389</f>
         <v>3.0289985151421946E-2</v>
@@ -20769,7 +20806,7 @@
         <v>1.4304992241100121</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10">
       <c r="A518" s="3">
         <f t="shared" ref="A518:J518" si="207">A390</f>
         <v>2.6829328564015917E-2</v>
@@ -20811,7 +20848,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10">
       <c r="A519" s="3">
         <f t="shared" ref="A519:J519" si="208">A391</f>
         <v>2.6829328564015917E-2</v>
@@ -20853,7 +20890,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10">
       <c r="A520" s="3">
         <f t="shared" ref="A520:J520" si="209">A392</f>
         <v>2.3368671976609884E-2</v>
@@ -20895,7 +20932,7 @@
         <v>1.2848085989331155</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10">
       <c r="A521" s="3">
         <f t="shared" ref="A521:J521" si="210">A393</f>
         <v>2.7135280902801352E-2</v>
@@ -20937,7 +20974,7 @@
         <v>1.3829591690336882</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10">
       <c r="A522" s="3">
         <f t="shared" ref="A522:J522" si="211">A394</f>
         <v>3.0901889828992824E-2</v>
@@ -20979,7 +21016,7 @@
         <v>1.4811097391342609</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10">
       <c r="A523" s="3">
         <f t="shared" ref="A523:J523" si="212">A395</f>
         <v>4.0138562921058489E-2</v>
@@ -21021,7 +21058,7 @@
         <v>1.5022116803039225</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10">
       <c r="A524" s="3">
         <f t="shared" ref="A524:J524" si="213">A396</f>
         <v>4.9375236013124157E-2</v>
@@ -21063,7 +21100,7 @@
         <v>1.5233136214735843</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10">
       <c r="A525" s="3">
         <f t="shared" ref="A525:J525" si="214">A397</f>
         <v>3.7168776395131886E-2</v>
@@ -21105,7 +21142,7 @@
         <v>1.5249090739551419</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10">
       <c r="A526" s="3">
         <f t="shared" ref="A526:J526" si="215">A398</f>
         <v>2.4962316777139615E-2</v>
@@ -21147,7 +21184,7 @@
         <v>1.5265045264366994</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10">
       <c r="A527" s="3">
         <f t="shared" ref="A527:J527" si="216">A399</f>
         <v>2.3510794898959395E-2</v>
@@ -21189,7 +21226,7 @@
         <v>1.631598150824066</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10">
       <c r="A528" s="3">
         <f t="shared" ref="A528:J528" si="217">A400</f>
         <v>2.2059273020779178E-2</v>
@@ -21231,7 +21268,7 @@
         <v>1.7366917752114324</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10">
       <c r="A529" s="3">
         <f t="shared" ref="A529:J529" si="218">A401</f>
         <v>2.2689277282449447E-2</v>
@@ -21273,7 +21310,7 @@
         <v>1.8783903210742114</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10">
       <c r="A530" s="3">
         <f t="shared" ref="A530:J530" si="219">A402</f>
         <v>2.3319281544119712E-2</v>
@@ -21315,7 +21352,7 @@
         <v>2.0200888669369905</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10">
       <c r="A531" s="3">
         <f t="shared" ref="A531:J531" si="220">A403</f>
         <v>2.5520725634610664E-2</v>
@@ -21357,7 +21394,7 @@
         <v>2.0285176840558297</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10">
       <c r="A532" s="3">
         <f t="shared" ref="A532:J532" si="221">A404</f>
         <v>2.7722169725101616E-2</v>
@@ -21399,7 +21436,7 @@
         <v>2.0369465011746692</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10">
       <c r="A533" s="3">
         <f t="shared" ref="A533:J533" si="222">A405</f>
         <v>2.3688845829400694E-2</v>
@@ -21441,7 +21478,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10">
       <c r="A534" s="3">
         <f t="shared" ref="A534:J534" si="223">A406</f>
         <v>1.9655521933699776E-2</v>
@@ -21483,7 +21520,7 @@
         <v>2.0365588967617909</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10">
       <c r="A535" s="3">
         <f t="shared" ref="A535:J535" si="224">A407</f>
         <v>2.6377490943595046E-2</v>
@@ -21525,7 +21562,7 @@
         <v>1.7806215180992444</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10">
       <c r="A536" s="3">
         <f t="shared" ref="A536:J536" si="225">A408</f>
         <v>3.3099459953490312E-2</v>
@@ -21567,7 +21604,7 @@
         <v>1.5246841394366981</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10">
       <c r="A537" s="3">
         <f t="shared" ref="A537:J537" si="226">A409</f>
         <v>3.5712499240483329E-2</v>
@@ -21609,7 +21646,7 @@
         <v>1.5142359024437635</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10">
       <c r="A538" s="3">
         <f t="shared" ref="A538:J538" si="227">A410</f>
         <v>3.8325538527476347E-2</v>
@@ -21651,7 +21688,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10">
       <c r="A539" s="3">
         <f t="shared" ref="A539:J539" si="228">A411</f>
         <v>3.8325538527476347E-2</v>
@@ -21693,7 +21730,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10">
       <c r="A540" s="41" t="s">
         <v>110</v>
       </c>
@@ -21707,22 +21744,22 @@
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10">
       <c r="A541" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10">
       <c r="A542" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10">
       <c r="A543" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10">
       <c r="A544" s="1">
         <v>2008</v>
       </c>
@@ -21754,7 +21791,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10">
       <c r="A545" s="39" t="s">
         <v>21</v>
       </c>
@@ -21763,7 +21800,7 @@
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10">
       <c r="A546" s="3">
         <v>1.7781560053785701</v>
       </c>
@@ -21795,13 +21832,13 @@
         <v>1.8195645181290399</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10">
       <c r="A547" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B547" s="3"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10">
       <c r="A548" s="7" t="s">
         <v>91</v>
       </c>
@@ -21833,7 +21870,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10">
       <c r="A549" s="7" t="s">
         <v>96</v>
       </c>
@@ -21865,7 +21902,7 @@
         <v>0.41312100000000002</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10">
       <c r="A550" s="7" t="s">
         <v>100</v>
       </c>
@@ -21897,7 +21934,7 @@
         <v>0.38645200000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10">
       <c r="A551" s="7" t="s">
         <v>103</v>
       </c>
@@ -21929,7 +21966,7 @@
         <v>0.35084100000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10">
       <c r="A552" s="7" t="s">
         <v>105</v>
       </c>
@@ -21961,7 +21998,7 @@
         <v>0.30300700000000003</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10">
       <c r="A553" s="7" t="s">
         <v>107</v>
       </c>
@@ -21993,7 +22030,7 @@
         <v>0.24432999999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10">
       <c r="A554">
         <v>0.45</v>
       </c>
@@ -22025,7 +22062,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10">
       <c r="A555" s="41" t="s">
         <v>111</v>
       </c>
@@ -22039,22 +22076,22 @@
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10">
       <c r="A556" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10">
       <c r="A557" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10">
       <c r="A558" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10">
       <c r="A559">
         <v>2008</v>
       </c>
@@ -22086,7 +22123,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10">
       <c r="A560" s="39" t="s">
         <v>64</v>
       </c>
@@ -22095,7 +22132,7 @@
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11">
       <c r="A561" s="3">
         <v>0.35921369886882398</v>
       </c>
@@ -22127,13 +22164,13 @@
         <v>0.14260120857240702</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11">
       <c r="A562" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B562" s="3"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11">
       <c r="A563" s="7" t="s">
         <v>91</v>
       </c>
@@ -22165,7 +22202,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11">
       <c r="A564" s="7" t="s">
         <v>95</v>
       </c>
@@ -22197,7 +22234,7 @@
         <v>0.45928799999999997</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11">
       <c r="A565" s="7" t="s">
         <v>101</v>
       </c>
@@ -22229,7 +22266,7 @@
         <v>0.49138300000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11">
       <c r="A566" s="7" t="s">
         <v>104</v>
       </c>
@@ -22261,7 +22298,7 @@
         <v>0.53049000000000002</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11">
       <c r="A567" s="7" t="s">
         <v>106</v>
       </c>
@@ -22293,7 +22330,7 @@
         <v>0.57849899999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11">
       <c r="A568" s="7" t="s">
         <v>108</v>
       </c>
@@ -22325,7 +22362,7 @@
         <v>0.63571500000000003</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11">
       <c r="A569" s="7">
         <v>0.45</v>
       </c>
@@ -22357,27 +22394,27 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11">
       <c r="A570" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11">
       <c r="A571" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11">
       <c r="A572">
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11">
       <c r="A573" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11">
       <c r="A574">
         <v>2013</v>
       </c>
@@ -22388,7 +22425,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11">
       <c r="A575">
         <v>0.88404850662075052</v>
       </c>
@@ -22399,13 +22436,13 @@
         <v>1.3183963670409999</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11">
       <c r="A576" t="s">
         <v>22</v>
       </c>
       <c r="K576" s="8"/>
     </row>
-    <row r="577" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:49">
       <c r="A577" s="7" t="s">
         <v>71</v>
       </c>
@@ -22416,7 +22453,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="578" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:49">
       <c r="A578" s="7">
         <v>0.25</v>
       </c>
@@ -22427,12 +22464,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="579" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:49">
       <c r="A579" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="580" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:49">
       <c r="A580" s="7" t="s">
         <v>61</v>
       </c>
@@ -22581,7 +22618,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="581" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:49">
       <c r="A581">
         <v>0.51900000000000002</v>
       </c>
@@ -22730,22 +22767,22 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="582" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:49">
       <c r="A582" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:49">
       <c r="A583">
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:49">
       <c r="A584" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="585" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:49">
       <c r="A585">
         <v>2013</v>
       </c>
@@ -22756,12 +22793,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="586" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:49">
       <c r="A586" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:49">
       <c r="A587" s="7">
         <v>10</v>
       </c>
@@ -22772,22 +22809,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:49">
       <c r="A588" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:49">
       <c r="A589" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:49">
       <c r="A590" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="591" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:49">
       <c r="A591">
         <v>1</v>
       </c>
@@ -22798,7 +22835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:49">
       <c r="A592">
         <v>10</v>
       </c>
@@ -22809,22 +22846,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10">
       <c r="A593" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10">
       <c r="A594">
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10">
       <c r="A595" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10">
       <c r="A596">
         <v>2015</v>
       </c>
@@ -22832,12 +22869,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10">
       <c r="A597" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10">
       <c r="A598" s="7">
         <v>0</v>
       </c>
@@ -22845,12 +22882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10">
       <c r="A599" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10">
       <c r="A600" s="36" t="s">
         <v>16</v>
       </c>
@@ -22882,7 +22919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10">
       <c r="A601" s="2">
         <v>0.90310382941335254</v>
       </c>
@@ -22914,7 +22951,7 @@
         <v>1.220138466143036E-3</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10">
       <c r="A602" s="2">
         <v>1.8191638507297297E-3</v>
       </c>
@@ -22946,7 +22983,7 @@
         <v>2.5847380934020093E-3</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10">
       <c r="A603" s="2">
         <v>0.27136782546048677</v>
       </c>
@@ -22978,12 +23015,12 @@
         <v>3.958014030218985E-4</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10">
       <c r="A604" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10">
       <c r="A605" s="36" t="s">
         <v>16</v>
       </c>
@@ -23006,7 +23043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10">
       <c r="A606" s="32">
         <v>3.5776484729225424E-3</v>
       </c>
@@ -23029,7 +23066,7 @@
         <v>1.3290561900753775E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10">
       <c r="A607" s="40">
         <v>0.27117563240954623</v>
       </c>
@@ -23052,12 +23089,12 @@
         <v>4.6565438074688782E-4</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10">
       <c r="A608" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10">
       <c r="A609" s="7" t="s">
         <v>16</v>
       </c>
@@ -23089,7 +23126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10">
       <c r="A610" s="24">
         <f>A611</f>
         <v>2.7552728462338989E-2</v>
@@ -23131,7 +23168,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10">
       <c r="A611" s="24">
         <f t="shared" ref="A611:A651" si="238">A612</f>
         <v>2.7552728462338989E-2</v>
@@ -23173,7 +23210,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10">
       <c r="A612" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23215,7 +23252,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10">
       <c r="A613" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23257,7 +23294,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10">
       <c r="A614" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23299,7 +23336,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10">
       <c r="A615" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23341,7 +23378,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10">
       <c r="A616" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23383,7 +23420,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10">
       <c r="A617" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23425,7 +23462,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10">
       <c r="A618" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23467,7 +23504,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10">
       <c r="A619" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23509,7 +23546,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10">
       <c r="A620" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23551,7 +23588,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10">
       <c r="A621" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23593,7 +23630,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10">
       <c r="A622" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23635,7 +23672,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10">
       <c r="A623" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23677,7 +23714,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10">
       <c r="A624" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23719,7 +23756,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10">
       <c r="A625" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23761,7 +23798,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10">
       <c r="A626" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23803,7 +23840,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10">
       <c r="A627" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23845,7 +23882,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10">
       <c r="A628" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23887,7 +23924,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10">
       <c r="A629" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23929,7 +23966,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10">
       <c r="A630" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -23971,7 +24008,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10">
       <c r="A631" s="24">
         <f>A632</f>
         <v>2.7552728462338989E-2</v>
@@ -24013,7 +24050,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10">
       <c r="A632" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24055,7 +24092,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10">
       <c r="A633" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24097,7 +24134,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10">
       <c r="A634" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24139,7 +24176,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10">
       <c r="A635" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24181,7 +24218,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10">
       <c r="A636" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24223,7 +24260,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10">
       <c r="A637" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24265,7 +24302,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10">
       <c r="A638" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24307,7 +24344,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10">
       <c r="A639" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24349,7 +24386,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10">
       <c r="A640" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24391,7 +24428,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10">
       <c r="A641" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24433,7 +24470,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10">
       <c r="A642" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24475,7 +24512,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10">
       <c r="A643" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24517,7 +24554,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10">
       <c r="A644" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24559,7 +24596,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10">
       <c r="A645" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24601,7 +24638,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10">
       <c r="A646" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24643,7 +24680,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10">
       <c r="A647" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24685,7 +24722,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10">
       <c r="A648" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24727,7 +24764,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10">
       <c r="A649" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24769,7 +24806,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10">
       <c r="A650" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24811,7 +24848,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10">
       <c r="A651" s="24">
         <f t="shared" si="238"/>
         <v>2.7552728462338989E-2</v>
@@ -24853,7 +24890,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10">
       <c r="A652" s="24">
         <f>A653</f>
         <v>2.7552728462338989E-2</v>
@@ -24895,7 +24932,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10">
       <c r="A653" s="24">
         <v>2.7552728462338989E-2</v>
       </c>
@@ -24927,7 +24964,7 @@
         <v>1.7830608552902496</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10">
       <c r="A654" s="24">
         <f>AVERAGE(A653,A655)</f>
         <v>3.6668868261793615E-2</v>
@@ -24969,7 +25006,7 @@
         <v>1.602231150614039</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10">
       <c r="A655" s="24">
         <v>4.5785008061248245E-2</v>
       </c>
@@ -25001,7 +25038,7 @@
         <v>1.4214014459378284</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10">
       <c r="A656" s="24">
         <f>AVERAGE(A655,A657)</f>
         <v>4.0547896539881348E-2</v>
@@ -25043,7 +25080,7 @@
         <v>1.2878939398655334</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11">
       <c r="A657" s="24">
         <v>3.5310785018514451E-2</v>
       </c>
@@ -25075,7 +25112,7 @@
         <v>1.1543864337932384</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11">
       <c r="A658" s="24">
         <f>A657</f>
         <v>3.5310785018514451E-2</v>
@@ -25117,12 +25154,12 @@
         <v>1.1543864337932384</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11">
       <c r="A659" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11">
       <c r="A660" s="34">
         <v>0.99696820024555399</v>
       </c>
@@ -25155,7 +25192,7 @@
       </c>
       <c r="K660" s="4"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11">
       <c r="A661" s="34">
         <v>1.3806249742478682E-2</v>
       </c>
@@ -25188,7 +25225,7 @@
       </c>
       <c r="K661" s="4"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11">
       <c r="A662" s="34">
         <v>1.7038104137577752E-8</v>
       </c>
@@ -25221,7 +25258,7 @@
       </c>
       <c r="K662" s="4"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11">
       <c r="A663" s="34">
         <v>1.4293123082035601E-15</v>
       </c>
@@ -25254,7 +25291,7 @@
       </c>
       <c r="K663" s="4"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11">
       <c r="A664" s="34">
         <v>1.7414966004332085E-22</v>
       </c>
@@ -25287,7 +25324,7 @@
       </c>
       <c r="K664" s="4"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11">
       <c r="A665" s="34">
         <v>7.9187390152442501E-29</v>
       </c>
@@ -25320,7 +25357,7 @@
       </c>
       <c r="K665" s="4"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11">
       <c r="A666" s="33">
         <v>1.6300596910444192E-34</v>
       </c>
@@ -25353,7 +25390,7 @@
       </c>
       <c r="K666" s="4"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11">
       <c r="A667" s="33">
         <v>1.4197252835086471E-39</v>
       </c>
@@ -25386,7 +25423,7 @@
       </c>
       <c r="K667" s="4"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11">
       <c r="A668" s="33">
         <v>4.5096179253662556E-44</v>
       </c>
@@ -25419,7 +25456,7 @@
       </c>
       <c r="K668" s="4"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11">
       <c r="A669" s="33">
         <v>4.4416417156480672E-48</v>
       </c>
@@ -25452,12 +25489,12 @@
       </c>
       <c r="K669" s="4"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11">
       <c r="A670" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11">
       <c r="A671" s="30">
         <v>1</v>
       </c>
@@ -25483,7 +25520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11">
       <c r="A672" s="30">
         <v>0</v>
       </c>
@@ -25509,7 +25546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8">
       <c r="A673" s="30">
         <v>0</v>
       </c>
@@ -25535,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8">
       <c r="A674" s="30">
         <v>0</v>
       </c>
@@ -25561,7 +25598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8">
       <c r="A675" s="30">
         <v>0</v>
       </c>
@@ -25587,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8">
       <c r="A676" s="30">
         <v>0</v>
       </c>
@@ -25613,7 +25650,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8">
       <c r="A677" s="30">
         <v>0</v>
       </c>
@@ -25639,7 +25676,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8">
       <c r="A678" s="30">
         <v>0</v>
       </c>
@@ -25665,7 +25702,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8">
       <c r="A679" s="30">
         <v>0</v>
       </c>
@@ -25691,7 +25728,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8">
       <c r="A680" s="30">
         <v>0</v>
       </c>
@@ -25717,12 +25754,12 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8">
       <c r="A681" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8">
       <c r="A682" s="30">
         <v>1</v>
       </c>
@@ -25745,7 +25782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8">
       <c r="A683" s="30">
         <v>0</v>
       </c>
@@ -25768,7 +25805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8">
       <c r="A684" s="30">
         <v>0</v>
       </c>
@@ -25791,7 +25828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8">
       <c r="A685" s="30">
         <v>0</v>
       </c>
@@ -25814,7 +25851,7 @@
         <v>1.34E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8">
       <c r="A686" s="30">
         <v>0</v>
       </c>
@@ -25837,7 +25874,7 @@
         <v>3.5340000000000003E-2</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8">
       <c r="A687" s="30">
         <v>0</v>
       </c>
@@ -25860,7 +25897,7 @@
         <v>0.10564</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8">
       <c r="A688" s="30">
         <v>0</v>
       </c>
@@ -25883,7 +25920,7 @@
         <v>0.19766</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10">
       <c r="A689" s="30">
         <v>0</v>
       </c>
@@ -25906,7 +25943,7 @@
         <v>0.30953999999999998</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10">
       <c r="A690" s="30">
         <v>0</v>
       </c>
@@ -25929,7 +25966,7 @@
         <v>0.39521000000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10">
       <c r="A691" s="30">
         <v>0</v>
       </c>
@@ -25952,12 +25989,12 @@
         <v>0.53095999999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10">
       <c r="A692" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10">
       <c r="A693" s="30">
         <v>1</v>
       </c>
@@ -25980,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10">
       <c r="A694" s="30">
         <v>0</v>
       </c>
@@ -26003,7 +26040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10">
       <c r="A695" s="30">
         <v>0</v>
       </c>
@@ -26026,7 +26063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10">
       <c r="A696" s="30">
         <v>0</v>
       </c>
@@ -26049,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10">
       <c r="A697" s="30">
         <v>0</v>
       </c>
@@ -26072,7 +26109,7 @@
         <v>6.5900000000000004E-3</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10">
       <c r="A698" s="30">
         <v>0</v>
       </c>
@@ -26095,7 +26132,7 @@
         <v>4.6240000000000003E-2</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10">
       <c r="A699" s="30">
         <v>0</v>
       </c>
@@ -26118,7 +26155,7 @@
         <v>0.12395</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10">
       <c r="A700" s="30">
         <v>0</v>
       </c>
@@ -26141,7 +26178,7 @@
         <v>0.20080999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10">
       <c r="A701" s="30">
         <v>0</v>
       </c>
@@ -26164,7 +26201,7 @@
         <v>0.27359</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10">
       <c r="A702" s="30">
         <v>0</v>
       </c>
@@ -26187,12 +26224,12 @@
         <v>0.41274</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10">
       <c r="A703" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10">
       <c r="A704" s="35" t="s">
         <v>16</v>
       </c>
@@ -26224,7 +26261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10">
       <c r="A705" s="3">
         <f t="shared" ref="A705:J705" si="242">A363</f>
         <v>4.491939606299724E-2</v>
@@ -26266,7 +26303,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10">
       <c r="A706" s="3">
         <f t="shared" ref="A706:J706" si="243">A364</f>
         <v>4.491939606299724E-2</v>
@@ -26308,7 +26345,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10">
       <c r="A707" s="3">
         <f t="shared" ref="A707:J707" si="244">A365</f>
         <v>4.491939606299724E-2</v>
@@ -26350,7 +26387,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10">
       <c r="A708" s="3">
         <f t="shared" ref="A708:J708" si="245">A366</f>
         <v>4.491939606299724E-2</v>
@@ -26392,7 +26429,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10">
       <c r="A709" s="3">
         <f t="shared" ref="A709:J709" si="246">A367</f>
         <v>4.491939606299724E-2</v>
@@ -26434,7 +26471,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10">
       <c r="A710" s="3">
         <f t="shared" ref="A710:J710" si="247">A368</f>
         <v>4.491939606299724E-2</v>
@@ -26476,7 +26513,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10">
       <c r="A711" s="3">
         <f t="shared" ref="A711:J711" si="248">A369</f>
         <v>4.491939606299724E-2</v>
@@ -26518,7 +26555,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10">
       <c r="A712" s="3">
         <f t="shared" ref="A712:J712" si="249">A370</f>
         <v>4.491939606299724E-2</v>
@@ -26560,7 +26597,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10">
       <c r="A713" s="3">
         <f t="shared" ref="A713:J713" si="250">A371</f>
         <v>4.491939606299724E-2</v>
@@ -26602,7 +26639,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10">
       <c r="A714" s="3">
         <f t="shared" ref="A714:J714" si="251">A372</f>
         <v>4.491939606299724E-2</v>
@@ -26644,7 +26681,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10">
       <c r="A715" s="3">
         <f t="shared" ref="A715:J715" si="252">A373</f>
         <v>4.491939606299724E-2</v>
@@ -26686,7 +26723,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10">
       <c r="A716" s="3">
         <f t="shared" ref="A716:J716" si="253">A374</f>
         <v>4.491939606299724E-2</v>
@@ -26728,7 +26765,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10">
       <c r="A717" s="3">
         <f t="shared" ref="A717:J717" si="254">A375</f>
         <v>4.491939606299724E-2</v>
@@ -26770,7 +26807,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10">
       <c r="A718" s="3">
         <f t="shared" ref="A718:J718" si="255">A376</f>
         <v>4.491939606299724E-2</v>
@@ -26812,7 +26849,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10">
       <c r="A719" s="3">
         <f t="shared" ref="A719:J719" si="256">A377</f>
         <v>6.231690904658755E-2</v>
@@ -26854,7 +26891,7 @@
         <v>1.1963470617467755</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10">
       <c r="A720" s="3">
         <f t="shared" ref="A720:J720" si="257">A378</f>
         <v>4.491939606299724E-2</v>
@@ -26896,7 +26933,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10">
       <c r="A721" s="3">
         <f t="shared" ref="A721:J721" si="258">A379</f>
         <v>4.491939606299724E-2</v>
@@ -26938,7 +26975,7 @@
         <v>1.2299431628559279</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10">
       <c r="A722" s="3">
         <f t="shared" ref="A722:J722" si="259">A380</f>
         <v>2.7521883079406933E-2</v>
@@ -26980,7 +27017,7 @@
         <v>1.2635392639650802</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10">
       <c r="A723" s="3">
         <f t="shared" ref="A723:J723" si="260">A381</f>
         <v>3.7607615276276027E-2</v>
@@ -27022,7 +27059,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10">
       <c r="A724" s="3">
         <f t="shared" ref="A724:J724" si="261">A382</f>
         <v>3.7607615276276027E-2</v>
@@ -27064,7 +27101,7 @@
         <v>1.3675802270156399</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10">
       <c r="A725" s="3">
         <f t="shared" ref="A725:J725" si="262">A383</f>
         <v>4.7693347473145117E-2</v>
@@ -27106,7 +27143,7 @@
         <v>1.4716211900661997</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10">
       <c r="A726" s="3">
         <f t="shared" ref="A726:J726" si="263">A384</f>
         <v>4.4142836064207602E-2</v>
@@ -27148,7 +27185,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10">
       <c r="A727" s="3">
         <f t="shared" ref="A727:J727" si="264">A385</f>
         <v>4.4142836064207602E-2</v>
@@ -27190,7 +27227,7 @@
         <v>1.4419509315336636</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10">
       <c r="A728" s="3">
         <f t="shared" ref="A728:J728" si="265">A386</f>
         <v>4.0592324655270087E-2</v>
@@ -27232,7 +27269,7 @@
         <v>1.4122806730011275</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10">
       <c r="A729" s="3">
         <f t="shared" ref="A729:J729" si="266">A387</f>
         <v>3.5441154903346019E-2</v>
@@ -27274,7 +27311,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10">
       <c r="A730" s="3">
         <f t="shared" ref="A730:J730" si="267">A388</f>
         <v>3.5441154903346019E-2</v>
@@ -27316,7 +27353,7 @@
         <v>1.4213899485555697</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10">
       <c r="A731" s="3">
         <f t="shared" ref="A731:J731" si="268">A389</f>
         <v>3.0289985151421946E-2</v>
@@ -27358,7 +27395,7 @@
         <v>1.4304992241100121</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10">
       <c r="A732" s="3">
         <f t="shared" ref="A732:J732" si="269">A390</f>
         <v>2.6829328564015917E-2</v>
@@ -27400,7 +27437,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10">
       <c r="A733" s="3">
         <f t="shared" ref="A733:J733" si="270">A391</f>
         <v>2.6829328564015917E-2</v>
@@ -27442,7 +27479,7 @@
         <v>1.3576539115215638</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10">
       <c r="A734" s="3">
         <f t="shared" ref="A734:J734" si="271">A392</f>
         <v>2.3368671976609884E-2</v>
@@ -27484,7 +27521,7 @@
         <v>1.2848085989331155</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10">
       <c r="A735" s="3">
         <f t="shared" ref="A735:J735" si="272">A393</f>
         <v>2.7135280902801352E-2</v>
@@ -27526,7 +27563,7 @@
         <v>1.3829591690336882</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10">
       <c r="A736" s="3">
         <f t="shared" ref="A736:J736" si="273">A394</f>
         <v>3.0901889828992824E-2</v>
@@ -27568,7 +27605,7 @@
         <v>1.4811097391342609</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10">
       <c r="A737" s="3">
         <f t="shared" ref="A737:J737" si="274">A395</f>
         <v>4.0138562921058489E-2</v>
@@ -27610,7 +27647,7 @@
         <v>1.5022116803039225</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10">
       <c r="A738" s="3">
         <f t="shared" ref="A738:J738" si="275">A396</f>
         <v>4.9375236013124157E-2</v>
@@ -27652,7 +27689,7 @@
         <v>1.5233136214735843</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10">
       <c r="A739" s="3">
         <f t="shared" ref="A739:J739" si="276">A397</f>
         <v>3.7168776395131886E-2</v>
@@ -27694,7 +27731,7 @@
         <v>1.5249090739551419</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10">
       <c r="A740" s="3">
         <f t="shared" ref="A740:J740" si="277">A398</f>
         <v>2.4962316777139615E-2</v>
@@ -27736,7 +27773,7 @@
         <v>1.5265045264366994</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10">
       <c r="A741" s="3">
         <f t="shared" ref="A741:J741" si="278">A399</f>
         <v>2.3510794898959395E-2</v>
@@ -27778,7 +27815,7 @@
         <v>1.631598150824066</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10">
       <c r="A742" s="3">
         <f t="shared" ref="A742:J742" si="279">A400</f>
         <v>2.2059273020779178E-2</v>
@@ -27820,7 +27857,7 @@
         <v>1.7366917752114324</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10">
       <c r="A743" s="3">
         <f t="shared" ref="A743:J743" si="280">A401</f>
         <v>2.2689277282449447E-2</v>
@@ -27862,7 +27899,7 @@
         <v>1.8783903210742114</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10">
       <c r="A744" s="3">
         <f t="shared" ref="A744:J744" si="281">A402</f>
         <v>2.3319281544119712E-2</v>
@@ -27904,7 +27941,7 @@
         <v>2.0200888669369905</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10">
       <c r="A745" s="3">
         <f t="shared" ref="A745:J745" si="282">A403</f>
         <v>2.5520725634610664E-2</v>
@@ -27946,7 +27983,7 @@
         <v>2.0285176840558297</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10">
       <c r="A746" s="3">
         <f t="shared" ref="A746:J746" si="283">A404</f>
         <v>2.7722169725101616E-2</v>
@@ -27988,7 +28025,7 @@
         <v>2.0369465011746692</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10">
       <c r="A747" s="3">
         <f t="shared" ref="A747:J747" si="284">A405</f>
         <v>2.3688845829400694E-2</v>
@@ -28030,7 +28067,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10">
       <c r="A748" s="3">
         <f t="shared" ref="A748:J748" si="285">A406</f>
         <v>1.9655521933699776E-2</v>
@@ -28072,7 +28109,7 @@
         <v>2.0365588967617909</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10">
       <c r="A749" s="3">
         <f t="shared" ref="A749:J749" si="286">A407</f>
         <v>2.6377490943595046E-2</v>
@@ -28114,7 +28151,7 @@
         <v>1.7806215180992444</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10">
       <c r="A750" s="3">
         <f t="shared" ref="A750:J750" si="287">A408</f>
         <v>3.3099459953490312E-2</v>
@@ -28156,7 +28193,7 @@
         <v>1.5246841394366981</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10">
       <c r="A751" s="3">
         <f t="shared" ref="A751:J751" si="288">A409</f>
         <v>3.5712499240483329E-2</v>
@@ -28198,7 +28235,7 @@
         <v>1.5142359024437635</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10">
       <c r="A752" s="3">
         <f t="shared" ref="A752:J752" si="289">A410</f>
         <v>3.8325538527476347E-2</v>
@@ -28240,7 +28277,7 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10">
       <c r="A753" s="3">
         <f t="shared" ref="A753:J753" si="290">A411</f>
         <v>3.8325538527476347E-2</v>
@@ -28282,17 +28319,17 @@
         <v>1.5037876654508286</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10">
       <c r="A754" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10">
       <c r="A755" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10">
       <c r="A756" s="10" t="s">
         <v>77</v>
       </c>
@@ -28324,7 +28361,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10">
       <c r="A757" s="36" t="s">
         <v>16</v>
       </c>
@@ -28356,7 +28393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10">
       <c r="A758" s="3">
         <f>A252</f>
         <v>1.2284714449209738E-2</v>
@@ -28398,7 +28435,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10">
       <c r="A759" s="3">
         <f t="shared" ref="A759:J759" si="292">A253</f>
         <v>1.2284714449209738E-2</v>
@@ -28440,7 +28477,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10">
       <c r="A760" s="3">
         <f t="shared" ref="A760:J760" si="293">A254</f>
         <v>1.2284714449209738E-2</v>
@@ -28482,7 +28519,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10">
       <c r="A761" s="3">
         <f t="shared" ref="A761:J761" si="294">A255</f>
         <v>1.2284714449209738E-2</v>
@@ -28524,7 +28561,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10">
       <c r="A762" s="3">
         <f t="shared" ref="A762:J762" si="295">A256</f>
         <v>1.2284714449209738E-2</v>
@@ -28566,7 +28603,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10">
       <c r="A763" s="3">
         <f t="shared" ref="A763:J763" si="296">A257</f>
         <v>1.2284714449209738E-2</v>
@@ -28608,7 +28645,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10">
       <c r="A764" s="3">
         <f t="shared" ref="A764:J764" si="297">A258</f>
         <v>1.2284714449209738E-2</v>
@@ -28650,7 +28687,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10">
       <c r="A765" s="3">
         <f t="shared" ref="A765:J765" si="298">A259</f>
         <v>1.2284714449209738E-2</v>
@@ -28692,7 +28729,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10">
       <c r="A766" s="3">
         <f t="shared" ref="A766:J766" si="299">A260</f>
         <v>1.2284714449209738E-2</v>
@@ -28734,7 +28771,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10">
       <c r="A767" s="3">
         <f t="shared" ref="A767:J767" si="300">A261</f>
         <v>1.2284714449209738E-2</v>
@@ -28776,7 +28813,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10">
       <c r="A768" s="3">
         <f t="shared" ref="A768:J768" si="301">A262</f>
         <v>1.2284714449209738E-2</v>
@@ -28818,7 +28855,7 @@
         <v>1.0099735032957513</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10">
       <c r="A769" s="3">
         <f t="shared" ref="A769:J769" si="302">A263</f>
         <v>1.6612968572642071E-2</v>
@@ -28860,7 +28897,7 @@
         <v>0.76384218302016826</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10">
       <c r="A770" s="3">
         <f t="shared" ref="A770:J770" si="303">A264</f>
         <v>1.490915457125102E-2</v>
@@ -28902,7 +28939,7 @@
         <v>0.9107124545361569</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10">
       <c r="A771" s="3">
         <f t="shared" ref="A771:J771" si="304">A265</f>
         <v>1.3205340569859966E-2</v>
@@ -28944,7 +28981,7 @@
         <v>1.0575827260521455</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10">
       <c r="A772" s="3">
         <f t="shared" ref="A772:J772" si="305">A266</f>
         <v>1.2278227555943384E-2</v>
@@ -28986,7 +29023,7 @@
         <v>1.005671466852389</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10">
       <c r="A773" s="3">
         <f t="shared" ref="A773:J773" si="306">A267</f>
         <v>1.1655357799197515E-2</v>
@@ -29028,7 +29065,7 @@
         <v>1.1565480030081621</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10">
       <c r="A774" s="3">
         <f t="shared" ref="A774:J774" si="307">A268</f>
         <v>7.6716777484057532E-3</v>
@@ -29070,7 +29107,7 @@
         <v>1.0662231375458915</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10">
       <c r="A775" s="3">
         <f t="shared" ref="A775:J775" si="308">A269</f>
         <v>8.6822334032944926E-3</v>
@@ -29112,7 +29149,7 @@
         <v>1.1738008393716481</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10">
       <c r="A776" s="3">
         <f t="shared" ref="A776:J776" si="309">A270</f>
         <v>9.6927890581832311E-3</v>
@@ -29154,7 +29191,7 @@
         <v>1.2813785411974048</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10">
       <c r="A777" s="3">
         <f t="shared" ref="A777:J777" si="310">A271</f>
         <v>1.0716550979024771E-2</v>
@@ -29196,7 +29233,7 @@
         <v>1.2209272531133084</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10">
       <c r="A778" s="3">
         <f t="shared" ref="A778:J778" si="311">A272</f>
         <v>8.4859678111978386E-3</v>
@@ -29238,7 +29275,7 @@
         <v>1.3636399050302852</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10">
       <c r="A779" s="3">
         <f t="shared" ref="A779:J779" si="312">A273</f>
         <v>1.0874065581080035E-2</v>
@@ -29280,7 +29317,7 @@
         <v>1.5214632853588541</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10">
       <c r="A780" s="3">
         <f t="shared" ref="A780:J780" si="313">A274</f>
         <v>1.1112465500706208E-2</v>
@@ -29322,7 +29359,7 @@
         <v>1.304152124385495</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10">
       <c r="A781" s="3">
         <f t="shared" ref="A781:J781" si="314">A275</f>
         <v>9.938135030436052E-3</v>
@@ -29364,7 +29401,7 @@
         <v>1.3321028810447899</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10">
       <c r="A782" s="3">
         <f t="shared" ref="A782:J782" si="315">A276</f>
         <v>1.0205502636033476E-2</v>
@@ -29406,7 +29443,7 @@
         <v>1.4313456970653544</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10">
       <c r="A783" s="3">
         <f t="shared" ref="A783:J783" si="316">A277</f>
         <v>1.0684035254627066E-2</v>
@@ -29448,7 +29485,7 @@
         <v>1.351810784160175</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10">
       <c r="A784" s="3">
         <f t="shared" ref="A784:J784" si="317">A278</f>
         <v>1.0509513505535334E-2</v>
@@ -29490,7 +29527,7 @@
         <v>1.373530451699529</v>
       </c>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:19">
       <c r="A785" s="3">
         <f t="shared" ref="A785:J785" si="318">A279</f>
         <v>1.0430075643199957E-2</v>
@@ -29532,7 +29569,7 @@
         <v>1.4243696456536084</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:19">
       <c r="A786" s="3">
         <f t="shared" ref="A786:J786" si="319">A280</f>
         <v>1.1108420865502459E-2</v>
@@ -29574,7 +29611,7 @@
         <v>1.3624920017082001</v>
       </c>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:19">
       <c r="A787" s="3">
         <f t="shared" ref="A787:J787" si="320">A281</f>
         <v>1.1944231309467115E-2</v>
@@ -29616,7 +29653,7 @@
         <v>1.4567194580708152</v>
       </c>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:19">
       <c r="A788" s="3">
         <f t="shared" ref="A788:J788" si="321">A282</f>
         <v>1.2780041753431772E-2</v>
@@ -29667,7 +29704,7 @@
       <c r="R788" s="3"/>
       <c r="S788" s="3"/>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:19">
       <c r="A789" s="3">
         <f t="shared" ref="A789:J789" si="322">A283</f>
         <v>8.6040766765964026E-3</v>
@@ -29718,7 +29755,7 @@
       <c r="R789" s="3"/>
       <c r="S789" s="3"/>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:19">
       <c r="A790" s="3">
         <f t="shared" ref="A790:J790" si="323">A284</f>
         <v>1.2447202602130837E-2</v>
@@ -29769,7 +29806,7 @@
       <c r="R790" s="3"/>
       <c r="S790" s="3"/>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:19">
       <c r="A791" s="3">
         <f t="shared" ref="A791:J791" si="324">A285</f>
         <v>1.2227883206916685E-2</v>
@@ -29820,7 +29857,7 @@
       <c r="R791" s="3"/>
       <c r="S791" s="3"/>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:19">
       <c r="A792" s="3">
         <f t="shared" ref="A792:J792" si="325">A286</f>
         <v>1.0060049940446026E-2</v>
@@ -29871,7 +29908,7 @@
       <c r="R792" s="3"/>
       <c r="S792" s="3"/>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:19">
       <c r="A793" s="3">
         <f t="shared" ref="A793:J793" si="326">A287</f>
         <v>1.1117302843180037E-2</v>
@@ -29922,7 +29959,7 @@
       <c r="R793" s="3"/>
       <c r="S793" s="3"/>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:19">
       <c r="A794" s="3">
         <f t="shared" ref="A794:J794" si="327">A288</f>
         <v>9.1446814420954505E-3</v>
@@ -29973,7 +30010,7 @@
       <c r="R794" s="3"/>
       <c r="S794" s="3"/>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:19">
       <c r="A795" s="3">
         <f t="shared" ref="A795:J795" si="328">A289</f>
         <v>1.0828703566679553E-2</v>
@@ -30024,7 +30061,7 @@
       <c r="R795" s="3"/>
       <c r="S795" s="3"/>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:19">
       <c r="A796" s="3">
         <f t="shared" ref="A796:J796" si="329">A290</f>
         <v>1.4007448257555429E-2</v>
@@ -30075,7 +30112,7 @@
       <c r="R796" s="3"/>
       <c r="S796" s="3"/>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:19">
       <c r="A797" s="3">
         <f t="shared" ref="A797:J797" si="330">A291</f>
         <v>1.114361869228782E-2</v>
@@ -30126,7 +30163,7 @@
       <c r="R797" s="3"/>
       <c r="S797" s="3"/>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:19">
       <c r="A798" s="3">
         <f t="shared" ref="A798:J798" si="331">A292</f>
         <v>9.9429891634063503E-3</v>
@@ -30177,7 +30214,7 @@
       <c r="R798" s="3"/>
       <c r="S798" s="3"/>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:19">
       <c r="A799" s="3">
         <f t="shared" ref="A799:J799" si="332">A293</f>
         <v>1.1706550765671373E-2</v>
@@ -30228,7 +30265,7 @@
       <c r="R799" s="3"/>
       <c r="S799" s="3"/>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:19">
       <c r="A800" s="3">
         <f t="shared" ref="A800:J800" si="333">A294</f>
         <v>1.3470112367936394E-2</v>
@@ -30279,7 +30316,7 @@
       <c r="R800" s="3"/>
       <c r="S800" s="3"/>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:19">
       <c r="A801" s="3">
         <f t="shared" ref="A801:J801" si="334">A295</f>
         <v>9.2745663480807306E-3</v>
@@ -30330,7 +30367,7 @@
       <c r="R801" s="3"/>
       <c r="S801" s="3"/>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:19">
       <c r="A802" s="3">
         <f t="shared" ref="A802:J802" si="335">A296</f>
         <v>1.2143436743192421E-2</v>
@@ -30381,7 +30418,7 @@
       <c r="R802" s="3"/>
       <c r="S802" s="3"/>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:19">
       <c r="A803" s="3">
         <f t="shared" ref="A803:J803" si="336">A297</f>
         <v>1.2892963599685585E-2</v>
@@ -30432,7 +30469,7 @@
       <c r="R803" s="3"/>
       <c r="S803" s="3"/>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:19">
       <c r="A804" s="3">
         <f t="shared" ref="A804:J804" si="337">A298</f>
         <v>1.2892963599685585E-2</v>
@@ -30483,7 +30520,7 @@
       <c r="R804" s="3"/>
       <c r="S804" s="3"/>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:19">
       <c r="A805" s="3">
         <f t="shared" ref="A805:J805" si="338">A299</f>
         <v>1.1044281647192688E-2</v>
@@ -30534,7 +30571,7 @@
       <c r="R805" s="3"/>
       <c r="S805" s="3"/>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:19">
       <c r="A806" s="3">
         <f t="shared" ref="A806:J806" si="339">A300</f>
         <v>8.1122549022674423E-3</v>
@@ -30585,12 +30622,12 @@
       <c r="R806" s="3"/>
       <c r="S806" s="3"/>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:19">
       <c r="A807" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:19">
       <c r="A808">
         <v>0</v>
       </c>
@@ -30622,7 +30659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:19">
       <c r="A809" s="5" t="s">
         <v>49</v>
       </c>
@@ -30630,7 +30667,7 @@
       <c r="L809" s="3"/>
       <c r="M809" s="3"/>
     </row>
-    <row r="810" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:19" ht="13">
       <c r="A810" s="2">
         <v>0</v>
       </c>
@@ -30671,12 +30708,12 @@
       <c r="R810" s="12"/>
       <c r="S810" s="12"/>
     </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:19">
       <c r="A811" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:19">
       <c r="A812" s="3">
         <f>AVERAGE(A752,A750,A748)</f>
         <v>3.0360173471555479E-2</v>
@@ -30718,12 +30755,12 @@
         <v>1.6883435672164395</v>
       </c>
     </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:19">
       <c r="A813" s="37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:19">
       <c r="A814" s="10">
         <f>AVERAGE(A802:A806)</f>
         <v>1.1417180098404745E-2</v>
@@ -30766,12 +30803,12 @@
       </c>
       <c r="K814" s="10"/>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:19">
       <c r="A815" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="816" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:19">
       <c r="A816" s="10">
         <v>0.16187499999999999</v>
       </c>
@@ -30803,12 +30840,12 @@
         <v>1.426714</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10">
       <c r="A817" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10">
       <c r="A818" s="3">
         <f>AVERAGE(A802:A806)</f>
         <v>1.1417180098404745E-2</v>
@@ -30850,17 +30887,17 @@
         <v>1.435303559375442</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10">
       <c r="A819" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10">
       <c r="A820" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10">
       <c r="A821">
         <v>0.26746433711462142</v>
       </c>
@@ -30877,27 +30914,27 @@
         <v>0.26746433711462142</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10">
       <c r="A822">
         <v>0.26221598722772482</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10">
       <c r="A823" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10">
       <c r="A824" s="4">
         <v>1.1424000000000001</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10">
       <c r="A825" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10">
       <c r="A826">
         <v>2.0702325939451875</v>
       </c>
